--- a/data/genius_Bushido_Black-friday.xlsx
+++ b/data/genius_Bushido_Black-friday.xlsx
@@ -407,8 +407,50 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yeah![Part 1]Du Hurensohn, hier endet deine GalgenfristSonny mischt das Gift wie ein AlchemistYeah, lustig, lustig, du SatirikerWer will spiel'n? Auf der Straße gibt's kein'n SchiedsrichterWir stürm'n maskiert deine Veganer-WGDenn du bist ein Hurensohn auf einer Skala bis zehn, yeahEure Lieblingsrapper fressen TotschlägerWährend mein Kontostand steigt wie ein StromzählerWenn du mein'n Namen in den Mund nimmstFick' ich deine Mutter und sie sagt, du bist kein WunschkindIch will, dass du dich umbringst, nimm noch ein'n Schluck, du LustknabeUnd ich hoffe, du erstickst an deiner Club-MateAuf deinem Label sind nur Freaks wie auf der LoveparadeSonny bounct den Beat und dein Missgeburten-Vater ravetVorgarten, Eigenheim und KitagutscheinDoch ich fick' zu viele Mütter, um ein Spießer zu seinUm mich mitzuteil'n brauch' ich keine Fotzen von der TelekomIch presse Hasspredigten auf CD-ROMIch hab' schlechte Laune, box' dein'n Vater auf dem SchützenfestUnd deiner Hurenmutter fehl'n die Worte wie im LückentextIch tret' auf eure Köpfe wie bei Mario LandUnd eure A-Prominenz meldet PrivatinsolvenzIch bin umstrittener als eure Lieblings-NazibandsIch koch' das Crystal Meth für Volker Beck, den PartyhengstUnd jetzt macht mir nicht auf Superstars, ihr Dorf-TupacsDenn ich erschuf euch wie George Lucas StormtroopersHier rappen zwanzig Jahre RelevanzIch piss' auf eure Köpfe und ihr Trottel macht 'n RegentanzDas ist Messerstechen und kein TaekwondoDer Googleserver gegen ein verdammtes MacBook ProSweatpants Sinatra, I did it my wayDie schwarzen Hände komm'n vom Geldzähl'n – Black Friday
-[Outro/Samples]„I'm the verbal-spit Smith Wesson“„Back to business“„I'm a star, I don't battle no mo'“„It's a blessing and a curse to be the best and the first“„I'm a motherfuckin' star“ „Don't ever forget“„The verbal-spit Smith Wesson“„I'm a star, I don't battle no mo'“„It's a blessing and a curse to be the best and the first“„I'm a motherfuckin' star“ „Don't ever forget“ „All right now“„Pardon me, uh, as I come back, as I come backPardon me, uh, as I come back, as I come back“</t>
+          <t>Yeah!
+[Part 1]
+Du Hurensohn, hier endet deineGalgenfrist
+Sonny mischt das Gift wie ein Alchemist
+Yeah, lustig, lustig, duSatiriker
+Wer will spiel'n? Auf der Straße gibt's kein'n Schiedsrichter
+Wir stürm'n maskiert deine Veganer-WG
+Denn du bist ein Hurensohn auf einer Skala bis zehn, yeah
+Eure Lieblingsrapper fressen Totschläger
+Während mein Kontostand steigt wie ein Stromzähler
+Wenn du mein'n Namen in den Mund nimmst
+Fick' ich deine Mutter und sie sagt, du bist kein Wunschkind
+Ich will, dass du dich umbringst, nimm noch ein'n Schluck, du Lustknabe
+Und ich hoffe, du erstickst an deinerClub-Mate
+Auf deinem Label sind nur Freaks wie auf derLoveparade
+Sonny bounct den Beat und dein Missgeburten-Vater ravet
+Vorgarten, Eigenheim und Kitagutschein
+Doch ich fick' zu viele Mütter, um ein Spießer zu sein
+Um mich mitzuteil'n brauch' ich keine Fotzen von der Telekom
+Ich presse Hasspredigten aufCD-ROM
+Ich hab' schlechte Laune, box' dein'n Vater auf dem Schützenfest
+Und deiner Hurenmutter fehl'n die Worte wie im Lückentext
+Ich tret' auf eure Köpfe wie bei Mario Land
+Und eure A-Prominenz meldet Privatinsolvenz
+Ich bin umstrittener als eure Lieblings-Nazibands
+Ich koch' das Crystal Meth für Volker Beck, den Partyhengst
+Und jetzt macht mir nicht auf Superstars, ihr Dorf-Tupacs
+Denn ich erschuf euch wieGeorge Lucas Stormtroopers
+Hier rappen zwanzig Jahre Relevanz
+Ich piss' auf eure Köpfe und ihr Trottel macht 'n Regentanz
+Das ist Messerstechen und kein Taekwondo
+Der Googleserver gegen ein verdammtes MacBook Pro
+Sweatpants Sinatra, I did it my way
+Die schwarzen Hände komm'n vom Geldzähl'n – Black Friday
+[Outro/Samples]
+„I'm the verbal-spit Smith Wesson“
+„Back to business“
+„I'm a star, I don't battle no mo'“
+„It's a blessing and a curse to be the best and the first“
+„I'm a motherfuckin' star“„Don't ever forget“
+„The verbal-spit Smith Wesson“„I'm a star, I don't battle no mo'“
+„It's a blessing and a curse to be the best and the first“
+„I'm a motherfuckin' star“„Don't ever forget“ „All right now“
+„Pardon me, uh, as I come back, as I come backPardon me, uh, as I come back, as I come back“</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -458,9 +500,50 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hier geht es zur Original-Version[Part 1]Yeah, hier rappen zwanzig Jahre StraßenschlachtenGold- und Platinplatten, das sind die harten FaktenEs begann in 'nem Café mit ein paar KanakenJetzt verfolgt dich dieses B wie ein schwarzer SchattenIch glaub', die woll'n, dass ich wieder Mütter fickeAls würde mich das jucken, so wie MückensticheRapper hab'n den Kopf in meinem Arsch, ich gebe TauchkurseUnd jetzt hol uns Pfefferminztee, du Laufbursche!Alles, was ich seh', sind Spinner mit 'nem AnglerhutNach einem YouTube-Hit Gesichts-, Hals- und HandtattoosDein krasses Loft ist nicht größer als ein PförtnerhausUnd wir häng'n nicht mit Krüppeln rum, du Körperklaus!Ihr zieht Lines und wir zieh'n StrippenUnd deine Polizei nehm' ich ernst wie Chief WiggumFrag mich nach 'nem Feature – es ist unbezahlbarBushidos B ist bekannter als der Bundesadler, yeah[Hook]Auf jeden Blitz folgt ein DonnerDer Himmel brennt – es ist Sodom und GomorrhaIch zeig' den Hunden, wo der Napf ist - mach Platz!Mach Sitz! Hier rappen acht Stell'n vor dem KommaAuf jeden Blitz folgt ein DonnerDer Himmel brennt – es ist Sodom und GomorrhaIch zeig' den Hunden, wo der Napf ist - mach Platz!Mach Sitz! Hier rappen acht Stell'n vor dem Komma
-[Part 2]Yeah, du trinkst an der Uni deine SojalatteWährenddessen fick' ich deine Mutter auf der YogamatteJeder Hangaround macht mir ein'n auf VollmemberAber ruft mit unterdrückter Nummer an wie CallcenterEs ist Sonny Black, sogar meine Snare ist classicDu wirst von Kanaken platt getreten wie ein PerserteppichDu warst nur 'ne Schnapsidee wie SliwowitzJa, ich bin ein Arschloch, aber du bist eine KlitorisFick dein'n Möchtegern-Franzosen-Videoclip!Hol dir eine Packung Chio-Chips und guck mein BiopicPfuh auf dich und deinen LeibwächterJeder Bastard hier macht Auge auf den EyecatcherDank mir ist das Niveau im Keller, so wie WeinfässerIch berichte vom Verbrechen wie ein PolizeisprecherIch brauche nur ein Kissen und ein'n SchalldämpferJetzt kriegt ihr Hunde eure Halsbänder, yeah[Hook]Auf jeden Blitz folgt ein DonnerDer Himmel brennt – es ist Sodom und GomorrhaIch zeig' den Hunden, wo der Napf ist - mach Platz!Mach Sitz! Hier rappen acht Stell'n vor dem KommaAuf jeden Blitz folgt ein DonnerDer Himmel brennt – es ist Sodom und GomorrhaIch zeig' den Hunden, wo der Napf ist - mach Platz!Mach Sitz! Hier rappen acht Stell'n vor dem Komma
-[Outro/Samples]„Don't get scared, just be prepared for the worst“„The end of the road“„This is war“„I'm goin' out blastin', takin' my enemies with me“„Be prepared for the worst“„Oh, there goes gravity“„I'm goin' out bla-Blasting, so they will never forget me“</t>
+          <t>[Songtext zu „Sodom und Gomorrha"]
+[Part 1]
+Yeah, hier rappen zwanzig Jahre Straßenschlachten
+Gold- und Platinplatten, das sind die harten Fakten
+Es begann in 'nem Café mit ein paar Kanaken
+Jetzt verfolgt dich dieses B wie ein schwarzer Schatten
+Ich glaub', die woll'n, dass ich wieder Mütter fickeAls würde mich das jucken, so wie Mückenstiche
+Rapper hab'n den Kopf in meinem Arsch, ich gebe Tauchkurse
+Und jetzt hol uns Pfefferminztee, du Laufbursche!
+Alles, was ich seh', sind Spinner mit 'nem Anglerhut
+Nach einem YouTube-Hit Gesichts-, Hals- und Handtattoos
+Dein krasses Loft ist nicht größer als ein Pförtnerhaus
+Und wir häng'n nicht mit Krüppeln rum, du Körperklaus!
+Ihr zieht Lines und wir zieh'n Strippen
+Und deine Polizei nehm' ich ernst wie Chief Wiggum
+Frag mich nach 'nem Feature – es ist unbezahlbar
+Bushidos B ist bekannter als der Bundesadler, yeah
+[Hook]
+Auf jeden Blitz folgt ein DonnerDer Himmel brennt – es ist Sodom und Gomorrha
+Ich zeig' den Hunden, wo der Napf ist - mach Platz!Mach Sitz!Hier rappen acht Stell'n vor dem Komma
+Auf jeden Blitz folgt ein DonnerDer Himmel brennt – es ist Sodom und Gomorrha
+Ich zeig' den Hunden, wo der Napf ist - mach Platz!Mach Sitz!Hier rappen acht Stell'n vor dem Komma
+[Part 2]
+Yeah, du trinkst an der Uni deine Sojalatte
+Währenddessen fick' ich deine Mutter auf der Yogamatte
+Jeder Hangaround macht mir ein'n auf VollmemberAber ruft mit unterdrückter Nummer an wie Callcenter
+Es ist Sonny Black, sogar meine Snare ist classic
+Du wirst von Kanaken platt getreten wie ein Perserteppich
+Du warst nur 'ne Schnapsidee wie Sliwowitz
+Ja, ich bin ein Arschloch, aber du bist eine Klitoris
+Fick dein'n Möchtegern-Franzosen-Videoclip!
+Hol dir eine Packung Chio-Chips und guck mein Biopic
+Pfuh auf dich und deinen Leibwächter
+Jeder Bastard hier macht Auge auf den Eyecatcher
+Dank mir ist das Niveau im Keller, so wie WeinfässerIch berichte vom Verbrechen wie ein Polizeisprecher
+Ich brauche nur ein Kissen und ein'n Schalldämpfer
+Jetzt kriegt ihr Hunde eure Halsbänder, yeah
+[Hook]
+Auf jeden Blitz folgt ein DonnerDer Himmel brennt – es ist Sodom und Gomorrha
+Ich zeig' den Hunden, wo der Napf ist - mach Platz!Mach Sitz! Hier rappen acht Stell'n vor dem Komma
+Auf jeden Blitz folgt ein DonnerDer Himmel brennt – es ist Sodom und Gomorrha
+Ich zeig' den Hunden, wo der Napf ist - mach Platz!Mach Sitz! Hier rappen acht Stell'n vor dem Komma
+[Outro/Samples]
+„Don't get scared, just be prepared for the worst“„The end of the road“„This is war“„I'm goin' out blastin', takin' my enemies with me“„Be prepared for the worst“„Oh, there goes gravity“„I'm goin' out bla-Blasting, so they will never forget me“</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -510,8 +593,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Part 1: Bushido]Yeah, echte Berliner, mit sechzehn ein DealerVorbestraft vor der ersten PorschefahrtVideo per Smartphonekamera, Schwarzkopf, AraberGhettolivestream, real recognize realKein Kompliment, wir ficken dich wie One-Night-StandsRefugees, Wyclef, verticken Haze – IsaacEcken an wie Minecraft, ambulanter Rettungsdienst(Rettungsdienst) Berlin ist unser BattlefieldTeflon feuerfest, Fahrstuhl voll getaggtHausverbot, vom Straßensmog unsre Augen rotSonderkommission, Jobs auf ProvisionTV-Satellitenschüssel, aus dem Wagen fliegen SchüsseTrag' Gesichtsmaske, unterm Shirt 'ne StichwaffeSo steht es in der Gerichtsakte, yeahWertpapiere in der Schweiz und die Konten sind in LichtensteinWas soll an Deutschrap ein Business sein? Yeah![Hook: Bushido, AK Ausserkontrolle]Wer sind die Kings? Wer hat die Krone auf?Geht zweimal Platin und hat paar Million'n verkauft?Echte BerlinerEchte BerlinerWer steigt in den Benz mit Ballermann in Hand?Fährt paar hundert Kilometer zu dem Baba deiner Stadt, wer?Echte Berliner (echte Berliner)Echte Berliner (echte Berliner)
-[Part 2: AK Ausserkontrolle]Lass' mich im Benz kutschieren oder im SQ7Sitz' in Stretchlimousinen und in SUVs drinAK Baba, ich zahl' bar meinen BenzerBatz auf den Tisch, siebzig K für den HändlerNach der Tat schnell das Bargeld verstecktWir warten, bis Gras drüber wächst, das ist StraßengesetzDrecksstaat, Status: verdecktWir jagen im Jaguar XF, schon seit Jahr'n im GeschäftAh, die Taten sind echtJetzt werden wieder Strafen verhängt (Strafen verhängt)Lass' alle wissen, was ich vorhab'Ich fick' den Baba deiner Ortschaft, im Panamera vorfahr'nIn Hose von Boss, die Rolex Master GMTSie setzen Trends und sie hoffen, dass wir mit ihn'n zieh'nWir sind Berliner und sie hassen uns für diesen StilDoch tut mir leid, diese Eier passen nicht in Skinnyjeans[Hook: Bushido, AK Ausserkontrolle]Wer sind die Kings? Wer hat die Krone auf?Geht zweimal Platin und hat paar Million'n verkauft?Echte BerlinerEchte BerlinerWer steigt in den Benz mit Ballermann in Hand?Fährt paar hundert Kilometer zu dem Baba deiner Stadt, wer?Echte Berliner (echte Berliner)Echte Berliner (echte Berliner)</t>
+          <t>[Part 1: Bushido]
+Yeah, echte Berliner, mit sechzehn ein Dealer
+Vorbestraft vor der ersten Porschefahrt
+Video per Smartphonekamera, Schwarzkopf, Araber
+Ghettolivestream, real recognize real
+Kein Kompliment, wir ficken dich wie One-Night-Stands
+Refugees, Wyclef, verticken Haze – Isaac
+Ecken an wie Minecraft, ambulanter Rettungsdienst
+(Rettungsdienst)Berlin ist unser Battlefield
+Teflon feuerfest, Fahrstuhl voll getaggt
+Hausverbot, vom Straßensmog unsre Augen rot
+Sonderkommission, Jobs auf Provision
+TV-Satellitenschüssel, aus dem Wagen fliegen Schüsse
+Trag' Gesichtsmaske, unterm Shirt 'ne Stichwaffe
+So steht es in der Gerichtsakte, yeah
+Wertpapiere in der Schweiz und die Konten sind in Lichtenstein
+Was soll an Deutschrap ein Business sein? Yeah!
+[Hook: Bushido, AK Ausserkontrolle]Wer sind die Kings? Wer hat die Krone auf?Geht zweimal Platin und hat paar Million'n verkauft?Echte BerlinerEchte BerlinerWer steigt in den Benz mit Ballermann in Hand?Fährt paar hundert Kilometer zu dem Baba deiner Stadt, wer?Echte Berliner (echte Berliner)Echte Berliner (echte Berliner)
+[Part 2: AK Ausserkontrolle]
+Lass' mich im Benz kutschieren oder im SQ7
+Sitz' in Stretchlimousinen und in SUVs drin
+AK Baba,ich zahl' bar meinen BenzerBatz auf den Tisch, siebzig K für den Händler
+Nach der Tat schnell das Bargeld versteckt
+Wir warten, bis Gras drüber wächst, das ist Straßengesetz
+Drecksstaat, Status: verdeckt
+Wir jagen im Jaguar XF, schon seit Jahr'n im Geschäft
+Ah, die Taten sind echt
+Jetzt werden wieder Strafen verhängt (Strafen verhängt)
+Lass' alle wissen, was ich vorhab'
+Ich fick' den Baba deiner Ortschaft, im Panamera vorfahr'n
+In Hose von Boss, die Rolex Master GMT
+Sie setzen Trends und sie hoffen, dass wir mit ihn'n zieh'n
+Wir sind Berliner und sie hassen uns für diesen Stil
+Doch tut mir leid, diese Eier passen nicht in Skinnyjeans
+[Hook: Bushido, AK Ausserkontrolle]Wer sind die Kings? Wer hat die Krone auf?Geht zweimal Platin und hat paar Million'n verkauft?Echte BerlinerEchte BerlinerWer steigt in den Benz mit Ballermann in Hand?Fährt paar hundert Kilometer zu dem Baba deiner Stadt, wer?Echte Berliner (echte Berliner)Echte Berliner (echte Berliner)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,9 +677,61 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Songtext zu „Fallout“][Intro]Hol' on![Hook]Schwarze Regentropfen fall'nEs ist Fallout, Fallout!Sickern durch die Risse im AsphaltEs ist Fallout, Fallout! (Hol' on!)Ich bin radioaktiv und nicht im Radio, du Piç!Es ist Fallout, Fallout!Fick das Grundgesetz, ich brauch' kein'n Grund, du KekSonny Black ist back und es wird wieder ungerecht - Fallout![Part 1]Blutgeld, ParalleljustizMeine Tochter ballt in der Cartier-BoutiqueDu bist am iPhone, ich am CryptophonBroke Rapper aktivier'n mein GlückshormonSonny ist der SzenenameLiefer' Stoff und meine keine MeterwarePersönlicher Bearbeiter im DezernatLKA, BKA, MDMA-Präparat (Hol' on!)Eingetragener VereinHunde komm'n nicht reinWährend Bullen wieder in Zivil fahndenSitze ich im Hinterzimmer, trinke Tee und spiel' KartenOrte, wo ich häng', sind kriminalitätsbelastetNerven liegen blank - Ramadan und jeder fastetFrüher schrieb ich Texte noch im LinienbusHeute fick' ich Mütter und verpiss' mich nach Mauritius
-[Hook]Schwarze Regentropfen fall'nEs ist Fallout, Fallout!Sickern durch die Risse im AsphaltEs ist Fallout, Fallout! (Hol' on!)Ich bin radioaktiv und nicht im Radio, du Piç!Es ist Fallout, Fallout!Fick das Grundgesetz, ich brauch' kein'n Grund, du KekSonny Black ist back und es wird wieder ungerecht - Fallout![Part 2]Scarface - RibéryMeine Tochter ballt bei TiffanyManche Brüder halbes Jahr in Beugehaft50k ist die Kaution, Korruption, TeufelspaktKein'n Respekt vorm RechtssystemWeil wir sowieso auf jeder Blacklist steh'nWir sind der Alptraum für jedes OpenairWenn wir komm'n, wird Ferropolis zum Roten Meer (Hol' on!)Ich sitz' neben Sean ConneryDu fliegst nur EconomyFick Maria … und die billigeHure wirft siamesische ZwillingeWerfe eine Flasche aus der MinibarUnd treffe StreetcinemaFick auf deine Meinung, Geheimbund, FreimaurereiUnd wenn ich will, ist wieder 2002
-[Hook]Schwarze Regentropfen fall'nEs ist Fallout, Fallout!Sickern durch die Risse im AsphaltEs ist Fallout, Fallout! (Hol' on!)Ich bin radioaktiv und nicht im Radio, du Piç!Es ist Fallout, Fallout!Fick das Grundgesetz, ich brauch' kein'n Grund, du KekSonny Black ist back und es wird wieder ungerecht - Fallout!</t>
+          <t>[Songtext zu „Fallout“]
+[Intro]
+Hol' on!
+[Hook]
+Schwarze Regentropfen fall'nEs ist Fallout, Fallout!
+Sickern durch die Risse im Asphalt
+Es ist Fallout, Fallout!(Hol' on!)
+Ich bin radioaktiv und nicht im Radio, du Piç!
+Es ist Fallout, Fallout!
+Fick das Grundgesetz, ich brauch' kein'n Grund, du Kek
+Sonny Black ist back und es wird wieder ungerecht - Fallout!
+[Part 1]
+Blutgeld, Paralleljustiz
+Meine Tochter ballt in der Cartier-Boutique
+Du bist am iPhone, ich am Cryptophon
+Broke Rapper aktivier'n mein Glückshormon
+Sonny ist der Szenename
+Liefer' Stoff und meine keine Meterware
+Persönlicher Bearbeiter im Dezernat
+LKA, BKA,MDMA-Präparat(Hol' on!)
+Eingetragener VereinHunde komm'n nicht rein
+Während Bullen wieder in Zivil fahndenSitze ich im Hinterzimmer, trinke Tee und spiel' KartenOrte, wo ich häng', sind kriminalitätsbelastet
+Nerven liegen blank - Ramadan und jeder fastet
+Früher schrieb ich Texte noch im Linienbus
+Heute fick' ich Mütter und verpiss' mich nach Mauritius
+[Hook]
+Schwarze Regentropfen fall'nEs ist Fallout, Fallout!
+Sickern durch die Risse im Asphalt
+Es ist Fallout, Fallout!(Hol' on!)
+Ich bin radioaktiv und nicht im Radio, du Piç!
+Es ist Fallout, Fallout!
+Fick das Grundgesetz, ich brauch' kein'n Grund, du Kek
+Sonny Black ist back und es wird wieder ungerecht - Fallout!
+[Part 2]
+Scarface - Ribéry
+Meine Tochter ballt bei Tiffany
+Manche Brüder halbes Jahr in Beugehaft
+50k ist die Kaution, Korruption, Teufelspakt
+Kein'n Respekt vorm Rechtssystem
+Weil wir sowieso auf jeder Blacklist steh'n
+Wir sind der Alptraum für jedes Openair
+Wenn wir komm'n, wird Ferropolis zum Roten Meer(Hol' on!)
+Ich sitz' neben Sean ConneryDu fliegst nur Economy
+Fick Maria … und die billigeHure wirft siamesische Zwillinge
+Werfe eine Flasche aus der MinibarUnd treffe Streetcinema
+Fick auf deine Meinung, Geheimbund, Freimaurerei
+Und wenn ich will, ist wieder 2002
+[Hook]
+Schwarze Regentropfen fall'nEs ist Fallout, Fallout!
+Sickern durch die Risse im Asphalt
+Es ist Fallout, Fallout! (Hol' on!)
+Ich bin radioaktiv und nicht im Radio, du Piç!
+Es ist Fallout, Fallout!
+Fick das Grundgesetz, ich brauch' kein'n Grund, du Kek
+Sonny Black ist back und es wird wieder ungerecht - Fallout!</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -613,8 +781,57 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yeah![Part 1: Shindy]Alles, was ich mach', ist sold-outSchreibe Songs für blonde Bitches, so wie No DoubtHab' den Run wie „Lola rennt“, Baby, rock die YogapantsSonny, Shindy – zwei Bros ball'n wie die BoatengsRenn' das Game als hätte ich ein SpielbrettVerkauf' mehr Backpacks als Eastpak – RealrapIch bin gold wie Ginger AleBitches flippen wieder aus als hätte Zara WintersaleHab' da draußen lauter Doubles, oftmals Shindy-laid-back-FlowSteige aus der Zauberkugel, meine Mini-PlaybackshowFree Shindy, CopkillerBorn SinnerKontostand lässt Anzugträger schwitzen wie ein BörsenstreikFick den Hip-Hop-Urban-Preis, Echo für mein MerchandiseBekomme unmoralische Angebote wie Demi MooreBitches, Daddy ist auf Daddy Tour[Hook: Shindy &amp; Bushido]Up in Smoke auf jedem Tourstop, TourstopBaby, nenn mich Snoop Dogg, Snoop Dogg!Big Pimpin' auf dem Rooftop, RooftopEs wirkt easy wie ein Moonwalk, Moonwalk, MoonwalkIch bin King of Kingz seit meinem ersten TapeFick das Samplerecht, ich digge in den CratesIhr seid alle meine Schüler, ich bin euer SenseiUnd es wirkt easy, so als wär' ich MJ
-[Part 2: Bushido]Mein Leben ist ein Krimi, thirteen Street, Polizei funkt – TeamspeakLass' ein ganzes Label zittern mit 'nem RetweetDein Monatslohn: mein Sweatshirt, Rockstar – Fred DurstIch hab' Brüder ohne gleichen Elternteil – PatchworkBürgermeister Sonny Black schafft Arbeitsplätze, so wie KruppDenn Rapper haben Schiss und brauchen doppelten PersonenschutzElf Monate BewährungsstrafePeace an Rooz, du RhesusaffeSonny hat den Schlüssel für den HundezwingerOffizielle Opferzahl, niemand kennt die DunkelzifferKing für die Kanakenkinder, AMG, acht ZylinderIhr seid nur'n paar Witzfigur'n – nenn' dein Label „Axel Springer“Ihr tanzt in euren Videos wie WaldorfschülerShindy, Sonny – zwei Bros mit Money wie die AldibrüderTrüffel auf den Linguine zu dem LachsfiletDeine ganze scheiß Karriere war 'ne Schnapsidee[Hook: Shindy &amp; Bushido]Up in Smoke auf jedem Tourstop, TourstopBaby, nenn mich Snoop Dogg, Snoop Dogg!Big Pimpin' auf dem Rooftop, RooftopEs wirkt easy wie ein Moonwalk, Moonwalk, MoonwalkIch bin King of Kingz seit meinem ersten TapeFick das Samplerecht, ich digge in den CratesIhr seid alle meine Schüler, ich bin euer SenseiUnd es wirkt easy, so als wär' ich MJ - Moonwalk</t>
+          <t>[Songtext zu „Moonwalk“ ft. Shindy]
+[Intro: Shindy]
+Yeah!
+[Part 1: Shindy]
+Alles, was ich mach', ist sold-out
+Schreibe Songs für blonde Bitches, so wie No Doubt
+Hab' den Run wie „Lola rennt“,Baby, rock die Yogapants
+Sonny, Shindy – zwei Bros ball'n wie die Boatengs
+Renn' das Game als hätte ich ein Spielbrett
+Verkauf' mehr Backpacks als Eastpak – Realrap
+Ich bin gold wie Ginger Ale
+Bitches flippen wieder aus als hätte Zara Wintersale
+Hab' da draußen lauter Doubles, oftmals Shindy-laid-back-Flow
+Steige aus der Zauberkugel, meine Mini-Playbackshow
+Free Shindy, Copkiller
+Born Sinner
+Kontostand lässt Anzugträger schwitzen wie ein Börsenstreik
+Fick den Hip-Hop-Urban-Preis, Echo für mein Merchandise
+Bekomme unmoralische Angebote wie Demi Moore
+Bitches, Daddy ist auf Daddy Tour
+[Hook: Shindy &amp;Bushido]
+Up in Smoke auf jedem Tourstop, TourstopBaby, nenn mich Snoop Dogg, Snoop Dogg!
+Big Pimpin' auf dem Rooftop, Rooftop
+Es wirkt easy wie ein Moonwalk, Moonwalk, Moonwalk
+Ich bin King of Kingz seit meinem ersten Tape
+Fick das Samplerecht, ich digge in den Crates
+Ihr seid alle meine Schüler, ich bin euer Sensei
+Und es wirkt easy, so als wär' ich MJ
+[Part 2: Bushido]
+Mein Leben ist ein Krimi, thirteen Street, Polizei funkt – Teamspeak
+Lass' ein ganzes Label zittern mit 'nem Retweet
+Dein Monatslohn: mein Sweatshirt,Rockstar – Fred Durst
+Ich hab' Brüder ohne gleichen Elternteil – Patchwork
+Bürgermeister Sonny Black schafft Arbeitsplätze, so wie Krupp
+Denn Rapper haben Schiss und brauchen doppelten Personenschutz
+Elf Monate Bewährungsstrafe
+Peace an Rooz, du Rhesusaffe
+Sonny hat den Schlüssel für den Hundezwinger
+Offizielle Opferzahl, niemand kennt die Dunkelziffer
+King für die Kanakenkinder, AMG, acht Zylinder
+Ihr seid nur'n paar Witzfigur'n – nenn' dein Label „Axel Springer“
+Ihr tanzt in euren Videos wie Waldorfschüler
+Shindy, Sonny – zwei Bros mit Money wie die Aldibrüder
+Trüffel auf den Linguine zu dem Lachsfilet
+Deine ganze scheiß Karriere war 'ne Schnapsidee
+[Hook: Shindy &amp; Bushido]
+Up in Smoke auf jedem Tourstop, TourstopBaby, nenn mich Snoop Dogg, Snoop Dogg!
+Big Pimpin' auf dem Rooftop, Rooftop
+Es wirkt easy wie ein Moonwalk, Moonwalk, Moonwalk
+Ich bin King of Kingz seit meinem ersten TapeFick das Samplerecht, ich digge in den CratesIhr seid alle meine Schüler, ich bin euer Sensei
+Und es wirkt easy, so als wär' ich MJ - Moonwalk</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -664,9 +881,65 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Hook]Bei euch ist man nur erwünscht, solang man Geld machtGeschlossene GesellschaftBei uns löst nur der Tod den Pakt aufBlood in, blood out – Geschlossene GesellschaftBei euch ist man nur erwünscht, solang man Geld machtGeschlossene GesellschaftBei uns löst nur der Tod den Pakt aufBlood in, blood out – Geschlossene Gesellschaft[Part 1]Ah, ich könnte geh'n wohin ich will, aber ich bleibe, wo ich warWir sind im Café, betreten nur auf eigene GefahrEgal wie klein der Kuchen, er ist groß genug, um aufzuteil'nUnter uns, Hunde müssen draußen bleibenBei euch ist nur der Kontostand relevantIhr gönnt euch gegenseitig nicht die Krümel vom TellerrandPromigalas und für jeden abgezählte BratkartoffelnAber machen mir auf großzügige MoralapostelnPleitegeier tragen Smoking, Huren komm'n im glitzernden KleidBelügt euch bis ihr nicht mehr wisst, wer ihr seidSowas gibt's in meiner Welt nicht, ich mach' den Menschen nichts vorFace to face oder mit Handy am OhrWas du siehst, ist was du kriegst – ich bin kein WerbegagIch behalte diese Attitüde bis ins SterbebettIhr akzeptiert nur ein'n Kunden als KönigGeschlossene Gesellschaft, Zutritt nicht möglich
-[Hook]Bei euch ist man nur erwünscht, solang man Geld machtGeschlossene GesellschaftBei uns löst nur der Tod den Pakt aufBlood in, blood out – Geschlossene GesellschaftBei euch ist man nur erwünscht, solang man Geld machtGeschlossene GesellschaftBei uns löst nur der Tod den Pakt aufBlood in, blood out – Geschlossene Gesellschaft[Part 2]Yeah, ich könnte geh'n wohin ich will, aber ich bleibe, wo ich warEs tut mir leid, Herr Kommissar, ich gebe kein'n KommentarBertelsmann, Axel Springer, Tagesschau, n-tvDie sind die Kriminell'n, doch drücken uns den Stempel aufDie woll'n uns nicht in ihren RestaurantsDie woll'n keine Kanaken mit InvestmentfondsUnd wir woll'n keine Heuchler in unserm KreisDenn dann gibt's auch kein'n Streit, wenn der Umsatz steigtRede kein'n Scheiß, wenn du nichts von uns weißtWas mit 'nem Typ wie dir geschieht, hat die Geschichte gezeigtWir sind keine Mafia, das Finanzamt ist die schlimmste GangDie stalken dich sogar auf InstagramWir sind auf ihrem Maskenball nicht eingeladenGeschlossen wie das KaDeWe an FeiertagenIch hoff', ihr schämt euch, wenn ihr in den Spiegel schautDenn immer wenn das Geld an eure Tür klopft, schließt ihr auf
-[Hook]Bei euch ist man nur erwünscht, solang man Geld machtGeschlossene GesellschaftBei uns löst nur der Tod den Pakt aufBlood in, blood out – Geschlossene GesellschaftBei euch ist man nur erwünscht, solang man Geld machtGeschlossene GesellschaftBei uns löst nur der Tod den Pakt aufBlood in, blood out – Geschlossene Gesellschaft</t>
+          <t>[Songtext zu „Geschlossene Gesellschaft"]
+[Hook]
+Bei euch ist man nur erwünscht, solang man Geld macht
+Geschlossene Gesellschaft
+Bei uns löst nur der Tod den Pakt auf
+Blood in, blood out – Geschlossene Gesellschaft
+Bei euch ist man nur erwünscht, solang man Geld macht
+Geschlossene Gesellschaft
+Bei uns löst nur der Tod den Pakt aufBlood in, blood out– Geschlossene Gesellschaft
+[Part 1]
+Ah, ich könnte geh'n wohin ich will, aber ich bleibe, wo ich war
+Wir sind im Café, betreten nur auf eigene Gefahr
+Egal wie klein der Kuchen, er ist groß genug, um aufzuteil'n
+Unter uns, Hunde müssen draußen bleiben
+Bei euch ist nur der Kontostand relevant
+Ihr gönnt euch gegenseitig nicht die Krümel vom Tellerrand
+Promigalas und für jeden abgezählte Bratkartoffeln
+Aber machen mir auf großzügige Moralaposteln
+Pleitegeier tragen Smoking, Huren komm'n im glitzernden Kleid
+Belügt euch bis ihr nicht mehr wisst, wer ihr seid
+Sowas gibt's in meiner Welt nicht, ich mach' den Menschen nichts vor
+Face to face oder mit Handy am Ohr
+Was du siehst, ist was du kriegst – ich bin kein Werbegag
+Ich behalte diese Attitüde bis ins Sterbebett
+Ihr akzeptiert nur ein'n Kunden als König
+Geschlossene Gesellschaft, Zutritt nicht möglich
+[Hook]
+Bei euch ist man nur erwünscht, solang man Geld macht
+Geschlossene Gesellschaft
+Bei uns löst nur der Tod den Pakt auf
+Blood in, blood out – Geschlossene Gesellschaft
+Bei euch ist man nur erwünscht, solang man Geld macht
+Geschlossene Gesellschaft
+Bei uns löst nur der Tod den Pakt auf
+Blood in, blood out – Geschlossene Gesellschaft
+[Part 2]
+Yeah, ich könnte geh'n wohin ich will, aber ich bleibe, wo ich war
+Es tut mir leid, Herr Kommissar, ich gebe kein'n Kommentar
+Bertelsmann, Axel Springer, Tagesschau, n-tvDie sind die Kriminell'n, doch drücken uns den Stempel auf
+Die woll'n uns nicht in ihren Restaurants
+Die woll'n keine Kanaken mit Investmentfonds
+Und wir woll'n keine Heuchler in unserm Kreis
+Denn dann gibt's auch kein'n Streit, wenn der Umsatz steigt
+Rede kein'n Scheiß, wenn du nichts von uns weißt
+Was mit 'nem Typ wie dir geschieht, hat die Geschichte gezeigt
+Wir sind keine Mafia,das Finanzamt ist die schlimmste GangDie stalken dich sogar auf Instagram
+Wir sind auf ihrem Maskenball nicht eingeladen
+Geschlossen wie das KaDeWe an Feiertagen
+Ich hoff', ihr schämt euch, wenn ihr in den Spiegel schaut
+Denn immer wenn das Geld an eure Tür klopft, schließt ihr auf
+[Hook]
+Bei euch ist man nur erwünscht, solang man Geld macht
+Geschlossene Gesellschaft
+Bei uns löst nur der Tod den Pakt auf
+Blood in, blood out – Geschlossene Gesellschaft
+Bei euch ist man nur erwünscht, solang man Geld macht
+Geschlossene Gesellschaft
+Bei uns löst nur der Tod den Pakt auf
+Blood in, blood out – Geschlossene Gesellschaft</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -716,9 +989,105 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Intro: M.O030]JajajaJajajaBrrrJajajajajajajajaja[Hook: M.O030]Für sechstausend Euro Weed im KofferWenn die Feinde jetzt snitchen - dann geh'n wir reinHier draußen darfst du niemandem trau'nDer Kreis bleibt kleinFür sechstausend Euro Weed im KofferWenn die Feinde jetzt snitchen - dann geh'n wir reinHier draußen darfst du niemandem trau'n (nein, nein, nein)Wenn die Nachbarn jetzt snitchen, dann geh'n wir reinKeiner darf es wissen, sonst geh'n wir reinMama macht sich Sorgen um ihr'n SohnDenn er will jetzt die Million'nWenn die Nachbarn jetzt snitchen, dann geh'n wir reinKeiner darf es wissen, sonst geh'n wir reinMama macht sich Sorgen um ihr'n SohnDenn er will jetzt die Million'n[Part 1: Bushido]Yeah!Ficke den Markt, so wie MacintoshKoche das Crack in 'nem MessingtopfIn dei'm Gefängnisblock sing'n InsassenDie Spasten denken von sich, die wären Travis ScottVertraue hier keinemHabe das Cash in mei'm SamsonitePuste dich aus wie 'ne CandlelightBis du Hund um dich nur schwarz siehst wie rund um die Enterprise (jajaja)LKW mit LaderampeIllegaler Warenhandel, LKA-Beamte führ'n mich ab im BademantelMama hatte Sorgen um ihr'n Sohn (um ihr'n Sohn, um ihr'n Sohn)Doch wenn ich rein muss, geh' ich rein mit 'ner Million'n!Alle denken, sie wär'n Eazy-EAber ihr seid alles One-Hit-Wonder - Stevie BAuf der Straße, ich verließ sie nieVon der Skyline bis zum BordsteinMeine Connection geht T2BAutolack ist schwarz-matt (schwarz-matt!)S-Klassen wie beim Staatsakt (Staatsakt)Staatsfeind, StaatsbürgerAber wenn ihr Wichser vor mir steht, dann seid ihr alle starstrucked (starstrucked)Studiere meine AktienlistenKeine Zeit, um abzusitzenLass' lieber den Anwalt schlichtenImmer wenn die Nachbarn snitchen, yeah
-[Hook: M.O030]Für sechstausend Euro Weed im KofferWenn die Feinde jetzt snitchen - dann geh'n wir reinHier draußen darfst du niemandem trau'nDer Kreis bleibt kleinFür sechstausend Euro Weed im KofferWenn die Feinde jetzt snitchen - dann geh'n wir reinHier draußen darfst du niemandem trau'nWenn die Nachbarn jetzt snitchen, dann geh'n wir reinKeiner darf es wissen, sonst geh'n wir reinMama macht sich Sorgen um ihr'n SohnDenn er will jetzt die Million'nWenn die Nachbarn jetzt snitchen, dann geh'n wir reinKeiner darf es wissen, sonst geh'n wir reinMama macht sich Sorgen um ihr'n SohnDenn er will jetzt die Million'n (ja!)[Part 2: M.O030]Mann, die Zeit wird knapp, Mama, Geld wird knappDeshalb schreib' ich zwei Hits in derselben NachtUnd der Koffer voll, wenn die Nachbarn snitchenIch will Gold für mein Team, hab' die Schule geschmissenTag und Nacht unterwegsKeiner in der Gegend, der mich richtig verstehtOhne Money in den Taschen, Dicka, Freunde wurden RattenDicka, als wir noch nichts hatten - heute, heuteHeute geh' ich mein'n Weg, Drive-by mit der UziDie ganzen Keks machen MoviesSeit „Alles wird wahr“ schreiben Bitches mich anMann, als wäre ich Gucci (Gucci)Drive-by mit der UziWeil sie lügen, weil sie lügen, weil sie haten, weil sie hatenMann, sie faken, Mann, sie faken - GucciHmmm, jajajajaja!
-[Hook: M.O030]Für sechstausend Euro Weed im KofferWenn die Feinde jetzt snitchen - dann geh'n wir reinHier draußen darfst du niemandem trau'nDer Kreis bleibt kleinFür sechstausend Euro Weed im KofferWenn die Feinde jetzt snitchen - dann geh'n wir reinHier draußen darfst du niemandem trau'nWenn die Nachbarn jetzt snitchen, dann geh'n wir reinKeiner darf es wissen, sonst geh'n wir reinMama macht sich Sorgen um ihr'n SohnDenn er will jetzt die Million'nWenn die Nachbarn jetzt snitchen, dann geh'n wir reinKeiner darf es wissen, sonst geh'n wir reinMama macht sich Sorgen um ihr'n SohnDenn er will jetzt die Million'n[Outro]Er will die Million'n! Jaja, jajaTag und Nachts, da ist keiner, der mich versteht, nö, eh-ehEs geht so schnellMann, die Zeit wird knapp, mein Sohn will die MillionJaja, jajajajajajaMein Sohn, mein Sohn will die Million</t>
+          <t>[Intro: M.O030]
+Jajaja
+Jajaja
+Brrr
+Jajajajajajajajaja
+[Hook: M.O030]
+Für sechstausend Euro Weed im Koffer
+Wenn die Feinde jetztsnitchen- dann geh'n wir rein
+Hier draußen darfst du niemandem trau'n
+Der Kreis bleibt klein
+Für sechstausend Euro Weed im Koffer
+Wenn die Feinde jetzt snitchen - dann geh'n wir rein
+Hier draußen darfst du niemandem trau'n (nein, nein, nein)
+Wenn die Nachbarn jetzt snitchen, dann geh'n wir rein
+Keiner darf es wissen, sonst geh'n wir rein
+Mama macht sich Sorgen um ihr'n Sohn
+Denn er will jetzt die Million'n
+Wenn die Nachbarn jetzt snitchen, dann geh'n wir rein
+Keiner darf es wissen, sonst geh'n wir rein
+Mama macht sich Sorgen um ihr'n Sohn
+Denn er will jetzt die Million'n
+[Part 1: Bushido]
+Yeah!Ficke den Markt, so wie Macintosh
+Koche das Crack in 'nem Messingtopf
+In dei'm Gefängnisblock sing'n InsassenDie Spasten denken von sich, die wären Travis Scott
+Vertraue hier keinem
+Habe das Cash in mei'm Samsonite
+Puste dich aus wie 'ne Candlelight
+Bis du Hund um dich nur schwarz siehst wie rund um die Enterprise (jajaja)
+LKW mit Laderampe
+Illegaler Warenhandel, LKA-Beamte führ'n mich ab im Bademantel
+Mama hatte Sorgen um ihr'n Sohn (um ihr'n Sohn, um ihr'n Sohn)
+Doch wenn ich rein muss, geh' ich rein mit 'ner Million'n!
+Alle denken, sie wär'n Eazy-EAber ihr seid alles One-Hit-Wonder - Stevie B
+Auf der Straße, ich verließ sie nie
+Von der Skyline bis zum BordsteinMeine Connection geht T2B
+Autolack ist schwarz-matt (schwarz-matt!)
+S-Klassen wie beim Staatsakt (Staatsakt)
+Staatsfeind, Staatsbürger
+Aber wenn ihr Wichser vor mir steht, dann seid ihr alle starstrucked (starstrucked)
+Studiere meine Aktienlisten
+Keine Zeit, um abzusitzen
+Lass' lieber den Anwalt schlichten
+Immer wenn die Nachbarn snitchen, yeah
+[Hook: M.O030]
+Für sechstausend Euro Weed im Koffer
+Wenn die Feinde jetzt snitchen - dann geh'n wir rein
+Hier draußen darfst du niemandem trau'n
+Der Kreis bleibt klein
+Für sechstausend Euro Weed im Koffer
+Wenn die Feinde jetzt snitchen - dann geh'n wir rein
+Hier draußen darfst du niemandem trau'n
+Wenn die Nachbarn jetzt snitchen, dann geh'n wir rein
+Keiner darf es wissen, sonst geh'n wir rein
+Mama macht sich Sorgen um ihr'n Sohn
+Denn er will jetzt die Million'n
+Wenn die Nachbarn jetzt snitchen, dann geh'n wir rein
+Keiner darf es wissen, sonst geh'n wir rein
+Mama macht sich Sorgen um ihr'n Sohn
+Denn er will jetzt die Million'n (ja!)
+[Part 2: M.O030]
+Mann, die Zeit wird knapp, Mama, Geld wird knapp
+Deshalb schreib' ich zwei Hits in derselben Nacht
+Und der Koffer voll, wenn die Nachbarn snitchen
+Ich will Gold für mein Team, hab' die Schule geschmissen
+Tag und Nacht unterwegs
+Keiner in der Gegend, der mich richtig versteht
+Ohne Money in den Taschen, Dicka, Freunde wurden Ratten
+Dicka, als wir noch nichts hatten - heute, heute
+Heute geh' ich mein'n Weg, Drive-by mit der Uzi
+Die ganzen Keks machen Movies
+Seit „Alles wird wahr“ schreiben Bitches mich anMann, als wäre ich Gucci (Gucci)
+Drive-by mit der Uzi
+Weil sie lügen, weil sie lügen, weil sie haten, weil sie haten
+Mann, sie faken, Mann, sie faken - Gucci
+Hmmm, jajajajaja!
+[Hook: M.O030]
+Für sechstausend Euro Weed im Koffer
+Wenn die Feinde jetzt snitchen - dann geh'n wir rein
+Hier draußen darfst du niemandem trau'n
+Der Kreis bleibt klein
+Für sechstausend Euro Weed im Koffer
+Wenn die Feinde jetzt snitchen - dann geh'n wir rein
+Hier draußen darfst du niemandem trau'n
+Wenn die Nachbarn jetzt snitchen, dann geh'n wir rein
+Keiner darf es wissen, sonst geh'n wir rein
+Mama macht sich Sorgen um ihr'n Sohn
+Denn er will jetzt die Million'n
+Wenn die Nachbarn jetzt snitchen, dann geh'n wir rein
+Keiner darf es wissen, sonst geh'n wir rein
+Mama macht sich Sorgen um ihr'n Sohn
+Denn er will jetzt die Million'n
+[Outro]
+Er will die Million'n! Jaja, jaja
+Tag und Nachts, da ist keiner, der mich versteht, nö, eh-eh
+Es geht so schnell
+Mann, die Zeit wird knapp, mein Sohn will die Million
+Jaja, jajajajajaja
+Mein Sohn, mein Sohn will die Million</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -768,9 +1137,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Intro: Bushidos Kinder]„Der Papa ist ein ganz guter Rapper, der heißt Bushido und der kann richtig gut sing'n – und, und der, und der rappt ganz gut.“„Was redet Papa für eine Sprache?“„Deutsch.“Yeah![Part 1]Ich weiß, dass ihr das alles mitbekommt, auch wenn ich versuch', euch dran zu hindernIch weiß, ihr hört es von den andern KindernHört es von den andern Eltern, wenn sie reden auf dem SpielplatzAndre Papas tragen keine Jogginghosen oder SneakersAndre Papas sind nicht auf den TitelseitenAndre Papas zahlen nicht bei Toys "R" Us mit lila Schein'nAndre Papas werden morgens nicht geweckt von PolizistenAndre Papas werden nicht genervt von FotoblitzenDoch weil Papa in sein'n Liedern böse Sachen sagtDenkt die ganze Nachbarschaft, dass er auch böse Sachen machtAber Papa sagt die Sachen, die er sagtNur damit er nicht mehr tun muss, was Papa früher tatPapa hatte keine Wahl, nahm sich alles auf die falsche ArtIch war auf mich allein gestellt, als ich in eurem Alter warBevor man mich für die Geschichten ins Gefängnis stecktEntschied ich mich, sie aufs Papier zu bring'n, und jeder kennt sie jetzt[Hook]Seit mei'm ersten Text bin ich bei ihn'n verrufenDie sind die Bösen, wir die GutenNatürlich seh'n sie Fehler, wenn sie danach suchenDie sind die Bösen, wir die GutenAuch wenn sie unsere Familie verfluchenDie sind die Bösen, wir die GutenAuch wenn sie immer alles umzudreh'n versuchenDie sind die Bösen, wir die Guten
-[Part 2]Dass so viele Menschen hier so gern Papas Geschichten hör'nIst der Grund, warum uns immer fremde Blicke stör'nWarum ich so oft weg bin und warum ihr mich so sehr vermisstDie Antwort, wenn ihr Mama fragt, warum Papa im Fernseh'n istWeshalb er oft verreist und mit den Onkels in den Flieger steigtWichtig ist nur, dass ihr wisst: ich komme wieder heim!Papa wird von viel'n geliebt, Papa wird von viel'n gehasstWeil alle woll'n, was Papa hat, doch keiner es von ihnen schafftUnd Papa ärgern ist, was sie zufrieden machtSie wollten uns schon alles nehm'n, sogar euren KitaplatzAlle unsre Autos, die Computer, unser Haus und GartenDeshalb müsst ihr, wenn die Polizei kommt, immer draußen wartenSie woll'n bestimmen über richtig und falschDoch die Welt, aus der euer Papa berichtet, ist kaltUnd Lügen ist auch, wenn man schweigt, obwohl man die Wahrheit kenntWas zählt, seid ihr, egal, was irgendwer von eurem Vater denkt[Hook]Seit mei'm ersten Text bin ich bei ihn'n verrufenDie sind die Bösen, wir die GutenNatürlich seh'n sie Fehler, wenn sie danach suchenDie sind die Bösen, wir die GutenAuch wenn sie unsere Familie verfluchenDie sind die Bösen, wir die GutenAuch wenn sie immer alles umzudreh'n versuchenDie sind die Bösen, wir die Guten
-[Outro: Bushidos Kinder]„Warum machen alle Leute mit Papa ein Foto? Das… Der ist doch nur mein Papa, nur nur meiner!“„Alter Schwede, ey, Papa, für immer mein bester Freund!“„Ich mag dich so gern, ich kann gar nicht schlafen ohne dich!“„Papa, wo bist du denn? Bist du schon wieder im Studio? Wo bist du? Ohne dich kann ich nicht schlafen! Ich liebe dich so sehr, du bist mein Ein und Alles.“</t>
+          <t>[Songtext zu „Papa“]
+[Intro: Bushidos Kinder &amp; Bushido]
+„Der Papa ist ein ganz guter Rapper, der heißt Bushido und der kann richtig gut sing'n – und, und der, und der rappt ganz gut.“„Was redet Papa für eine Sprache?“„Deutsch.“Yeah!
+[Part 1]
+Ich weiß, dass ihr das alles mitbekommt, auch wenn ich versuch', euch dran zu hindernIch weiß, ihr hört es von den andern KindernHört es von den andern Eltern, wenn sie reden auf dem SpielplatzAndre Papas tragen keine Jogginghosen oder SneakersAndre Papas sind nicht auf den TitelseitenAndre Papas zahlen nicht bei Toys "R" Us mit lila Schein'nAndre Papas werden morgens nicht geweckt von PolizistenAndre Papas werden nicht genervt von Fotoblitzen
+Doch weil Papa in sein'n Liedern böse Sachen sagtDenkt die ganze Nachbarschaft, dass er auch böse Sachen machtAber Papa sagt die Sachen, die er sagtNur damit er nicht mehr tun muss, was Papa früher tatPapa hatte keine Wahl, nahm sich alles auf die falsche ArtIch war auf mich allein gestellt, als ich in eurem Alter warBevor man mich für die Geschichten ins Gefängnis stecktEntschied ich mich, sie aufs Papier zu bring'n, und jeder kennt sie jetzt
+[Hook]
+Seit mei'm ersten Text bin ich bei ihn'n verrufenDie sind die Bösen, wir die GutenNatürlich seh'n sie Fehler, wenn sie danach suchenDie sind die Bösen, wir die GutenAuch wenn sie unsere Familie verfluchenDie sind die Bösen, wir die GutenAuch wenn sie immer alles umzudreh'n versuchenDie sind die Bösen, wir die Guten
+[Part 2]
+Dass so viele Menschen hier so gern Papas Geschichten hör'nIst der Grund, warum uns immer fremde Blicke stör'nWarum ich so oft weg bin und warum ihr mich so sehr vermisstDie Antwort, wenn ihr Mama fragt, warum Papa im Fernseh'n istWeshalb er oft verreist und mit den Onkels in den Flieger steigtWichtig ist nur, dass ihr wisst: ich komme wieder heim!
+Papa wird von viel'n geliebt, Papa wird von viel'n gehasstWeil alle woll'n, was Papa hat, doch keiner es von ihnen schafftUnd Papa ärgern ist, was sie zufrieden machtSie wollten uns schon alles nehm'n, sogar euren KitaplatzAlle unsre Autos, die Computer, unser Haus und GartenDeshalb müsst ihr, wenn die Polizei kommt, immer draußen wartenSie woll'n bestimmen über richtig und falschDoch die Welt, aus der euer Papa berichtet, ist kaltUnd Lügen ist auch, wenn man schweigt, obwohl man die Wahrheit kenntWas zählt, seid ihr, egal, was irgendwer von eurem Vater denkt
+[Hook]
+Seit mei'm ersten Text bin ich bei ihn'n verrufenDie sind die Bösen, wir die GutenNatürlich seh'n sie Fehler, wenn sie danach suchenDie sind die Bösen, wir die GutenAuch wenn sie unsere Familie verfluchenDie sind die Bösen, wir die GutenAuch wenn sie immer alles umzudreh'n versuchenDie sind die Bösen, wir die Guten
+[Outro: Bushidos Kinder]
+„Warum machen alle Leute mit Papa ein Foto? Das… Der ist doch nur mein Papa, nur nur meiner!“„Alter Schwede, ey, Papa, für immer mein bester Freund!“„Ich mag dich so gern, ich kann gar nicht schlafen ohne dich!“„Papa, wo bist du denn? Bist du schon wieder im Studio? Wo bist du? Ohne dich kann ich nicht schlafen! Ich liebe dich so sehr, du bist mein Ein und Alles.“</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -820,9 +1201,66 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Pre-Hook: Fler]Zu viele Crewnamen abgekürzt mit BuchstabenWie mit den Jahren die ganzen Kekos auf den Zug sprang'nAuch wenn wir beide nicht auf künstlich immer cool war'nDie CCN-DNA in unsrer Blutbahn[Hook: Fler]Alle drücken Copy-PasteAlle drücken Copy-PasteAlle drücken Copy-PasteDoch alles Frank- und Sonny-Fakes![Part 1: Fler]Command C, Command VCCN – wir sind der OriginalsoundEure Fans, in den 90ern GeboreneDenken jetzt, ihr seid die Schöpfer der HistorieWir beide sind wie Prodigy und HavocStraßenvibes, die ihr gerne hättetEgal, ob Frieden oder Streit, uns schaut die Welt zuDoch kein Problem, Mann, „we love to entertain you“Damals schrieben sie mein'n Namen falsch bei MixeryDoch Sonny meinte: „Bleib cool, eines Tages fickst du sie!“Immer noch der, der dich an der Esso boxtEine Bombe und du liegst, Rap-ElektroschockDu gehst zum Szenebarber rein für dein'n FassonschnittDu Student, wirst schon seh'n wie du Beton frisstYeah, zieh den Carlo aus, du NuttensohnSonny bounct den Beat – Mission complete
-[Pre-Hook: Fler]Zu viele Crewnamen abgekürzt mit BuchstabenWie mit den Jahren die ganzen Kekos auf den Zug sprang'nAuch wenn wir beide nicht auf künstlich immer cool war'nDie CCN-DNA in unsrer Blutbahn[Hook: Fler]Alle drücken Copy-PasteAlle drücken Copy-PasteAlle drücken Copy-PasteDoch alles Frank- und Sonny-Fakes![Part 2: Bushido}Yeah!Tempelhof, Schöneberg, SachsendammAn mein Geschäft lass' ich kein'n von euch Spasten ranWo ich heute bin, verdank' ich außer mir nur sechs LeutenIhr geht trainier'n und macht Welle vor den WestdeutschenRapper hab'n seit ihrer Jugend ein'n Bushido-KomplexUnd hol'n sich Araber ans VideosetIhr geht hausier'n bei FamilienclansAber alle eure Filme sind umsonst wie auf Streamingportal'nJetzt wird die Ordnung wieder hergestellt, fick eure MärchenweltWir sind die Bösen, guck Stern TV, RTLSowas hörst du nicht bei 1LIVEDas kommt aus den Autos von Gangstern wie Kugeln bei Drive-bysAlles Sonny-Black-CopycatsKommunzier'n nur durch Blasen wie im Comicheft, yeahJunge, es ist Carlo Cokxxx NuttenDu musst diese Ladung Schrot schlucken
-[Pre-Hook: Fler]Zu viele Crewnamen abgekürzt mit BuchstabenWie mit den Jahren die ganzen Kekos auf den Zug sprang'nAuch wenn wir beide nicht auf künstlich immer cool war'nDie CCN-DNA in unsrer Blutbahn[Hook: Fler]Alle drücken Copy-PasteAlle drücken Copy-PasteAlle drücken Copy-PasteDoch alles Frank- und Sonny-Fakes!</t>
+          <t>[Songtext zu „CCNDNA" ft. Fler]
+[Pre-Hook: Fler]
+Zu viele Crewnamen abgekürzt mit BuchstabenWie mit den Jahren die ganzen Kekos auf den Zug sprang'n
+Auch wenn wir beide nicht auf künstlich immer cool war'n
+Die CCN-DNA in unsrer Blutbahn
+[Hook: Fler]
+Alle drücken Copy-Paste
+Alle drücken Copy-Paste
+Alle drücken Copy-Paste
+Doch alles Frank- und Sonny-Fakes!
+[Part 1: Fler]
+Command C, Command V
+CCN – wir sind der Originalsound
+Eure Fans, in den 90ern Geborene
+Denken jetzt, ihr seid die Schöpfer der Historie
+Wir beide sind wie Prodigy und Havoc
+Straßenvibes, die ihr gerne hättet
+Egal, ob Frieden oder Streit, uns schaut die Welt zuDoch kein Problem, Mann, „we love to entertain you“
+Damals schrieben sie mein'n Namen falsch bei MixeryDoch Sonny meinte: „Bleib cool, eines Tages fickst du sie!“
+Immer noch der, der dich an der Esso boxt
+Eine Bombe und du liegst, Rap-Elektroschock
+Du gehst zum Szenebarber rein für dein'n Fassonschnitt
+Du Student, wirst schon seh'n wie du Beton frisst
+Yeah, zieh den Carlo aus, du Nuttensohn
+Sonny bounct den Beat – Mission complete
+[Pre-Hook: Fler]
+Zu viele Crewnamen abgekürzt mit BuchstabenWie mit den Jahren die ganzen Kekos auf den Zug sprang'n
+Auch wenn wir beide nicht auf künstlich immer cool war'n
+Die CCN-DNA in unsrer Blutbahn
+[Hook: Fler]
+Alle drücken Copy-Paste
+Alle drücken Copy-Paste
+Alle drücken Copy-Paste
+Doch alles Frank- und Sonny-Fakes!
+[Part 2: Bushido]
+Yeah!
+Tempelhof, Schöneberg, Sachsendamm
+An mein Geschäft lass' ich kein'n von euch Spasten ran
+Wo ich heute bin, verdank' ich außer mir nur sechs Leuten
+Ihr geht trainier'n und macht Welle vor den Westdeutschen
+Rapper hab'n seit ihrer Jugend ein'n Bushido-Komplex
+Und hol'n sich Araber ans Videoset
+Ihr geht hausier'n bei Familienclans
+Aber alle eure Filme sind umsonst wie auf Streamingportal'n
+Jetzt wird die Ordnung wieder hergestellt, fick eure Märchenwelt
+Wir sind die Bösen, guck Stern TV, RTL
+Sowas hörst du nicht bei 1LIVE
+Das kommt aus den Autos von Gangstern wie Kugeln bei Drive-bys
+Alles Sonny-Black-CopycatsKommunzier'n nur durch Blasen wie im Comicheft, yeah
+Junge, es ist Carlo Cokxxx Nutten
+Du musst diese Ladung Schrot schlucken
+[Pre-Hook: Fler]
+Zu viele Crewnamen abgekürzt mit BuchstabenWie mit den Jahren die ganzen Kekos auf den Zug sprang'n
+Auch wenn wir beide nicht auf künstlich immer cool war'n
+Die CCN-DNA in unsrer Blutbahn
+[Hook: Fler]
+Alle drücken Copy-Paste
+Alle drücken Copy-Paste
+Alle drücken Copy-Paste
+Doch alles Frank- und Sonny-Fakes!</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -872,8 +1310,59 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[Songtext zu „Ground Zero“][Part 1]Yeah, ich hab' Schwarzgeld, ich hab' SchwarzgeldVor dem Komma acht Ziffern, handel' mit den HaftrichternFick' auf die Privatrente, Geld über die StaatsgrenzeKonten in der Schweiz, ich muss mich absichernWerd' von Bullen abgestempelt wie mein deutscher Pass15 Mille weg, denn ich war mit den Kids bei Toys “R” UsIn eurer Gang mehr Bitches als in Shindys KäuferschaftDeine Mutter schläft am Tresen ein und stinkt nach KräuterschnapsOb wir cool sind, ist von meiner Laune abhängigDeine Frau hat Schweinespeck drauf wie ein ClubsandwichWir distanzieren uns von Deutschland wie Usedom„Hip-Hop-Journalist“ ist das neue „Hurensohn“Ihr denkt ihr geht auf Tour in eurem SiebensitzerKommt nach Berlin und ihr kriegt Stiche wie ein BienenzüchterJetzt wird jedes Magazin beleidigt, jeder Parasit beseitigtÖffentlich auf Twitter – fick dein Briefgeheimnis![Hook]Für dich geht es von der Skyline zum BordsteinGround Zero, Ground ZeroDer Horror kehrt zurück wie in Saw IIGround Zero, Ground ZeroImportierte KriminalitätGround Zero, Ground ZeroWir werden sehen, wie ihr ganzen Fotzen mit dem Imageschaden lebtGround Zero
-[Part 2]Ich bin auf ProSieben, RTL und Kabel einsUnd das Grinsen eines Millionärs ist strahlend weißDeine Mutter lutscht die Nüsse von ihr'm SahneeisUnd ist dabei blau wie die Outlines ihres ArschgeweihsSie ist ein Riesenfan von Carmen GeissUnd lebt in 'ner WG mit sechs Männern und nur einer Frau wie NaseweisMeine Jungs ticken Hennys unterm LadenpreisUnd der Staatsanwalt kann sich ficken ohne TatbeweisWenn ich sage, du gehst baden, mein' ich nicht im Spa-BereichSondern mit 'ner Kugel in dei'm Kopf in einem GartenteichWir hab'n Methoden, dich zu foltern wie im ZarenreichUnd wenn ich will, dann ist für dich für immer SchlafenszeitIch steh' über dem Gesetz, keine StrafbarkeitSchwarze Zahlen, schwarzes Geld, keine SchwarzarbeitEs wird heiß wie deine Mutter in ihr'm AbendkleidGround Zero Hexenkessel, dreihundert Fahrenheit[Hook]Für dich geht es von der Skyline zum BordsteinGround Zero, Ground ZeroDer Horror kehrt zurück wie in Saw IIGround Zero, Ground ZeroImportierte KriminalitätGround Zero, Ground ZeroWir werden sehen, wie ihr ganzen Fotzen mit dem Imageschaden lebtGround Zero</t>
+          <t>[Songtext zu „Ground Zero“]
+[Part 1]
+Yeah, ich hab' Schwarzgeld, ich hab' Schwarzgeld
+Vor dem Komma acht Ziffern, handel' mit den Haftrichtern
+Fick' auf die Privatrente, Geld über die Staatsgrenze
+Konten in der Schweiz, ich muss mich absichern
+Werd' von Bullen abgestempelt wie mein deutscher Pass
+15 Mille weg, denn ich war mit den Kids bei Toys “R” Us
+In eurer Gang mehr Bitches als in Shindys Käuferschaft
+Deine Mutter schläft am Tresen ein und stinkt nach Kräuterschnaps
+Ob wir cool sind, ist von meiner Laune abhängig
+Deine Frau hat Schweinespeck drauf wie ein Clubsandwich
+Wir distanzieren uns von Deutschland wie Usedom
+„Hip-Hop-Journalist“ ist das neue „Hurensohn“
+Ihr denkt ihr geht auf Tour in eurem Siebensitzer
+Kommt nach Berlin und ihr kriegt Stiche wie ein Bienenzüchter
+Jetzt wird jedes Magazin beleidigt, jeder Parasit beseitigt
+Öffentlich auf Twitter – fick dein Briefgeheimnis!
+[Hook]
+Für dich geht es von der Skyline zum Bordstein
+Ground Zero, Ground Zero
+Der Horror kehrt zurück wie in Saw II
+Ground Zero, Ground Zero
+Importierte Kriminalität
+Ground Zero, Ground Zero
+Wir werden sehen, wie ihr ganzen Fotzen mit dem Imageschaden lebt
+Ground Zero
+[Part 2]
+Ich bin auf ProSieben, RTL und Kabel eins
+Und das Grinsen eines Millionärs ist strahlend weiß
+Deine Mutter lutscht die Nüsse von ihr'm Sahneeis
+Und ist dabei blau wie die Outlines ihres Arschgeweihs
+Sie ist ein Riesenfan von Carmen Geiss
+Und lebt in 'ner WG mit sechs Männern und nur einer Frau wie Naseweis
+Meine Jungs ticken Hennys unterm Ladenpreis
+Und der Staatsanwalt kann sich ficken ohne Tatbeweis
+Wenn ich sage, du gehst baden, mein' ich nicht im Spa-Bereich
+Sondern mit 'ner Kugel in dei'm Kopf in einem Gartenteich
+Wir hab'n Methoden, dich zu foltern wie im Zarenreich
+Und wenn ich will, dann ist für dich für immer Schlafenszeit
+Ich steh' über dem Gesetz, keine Strafbarkeit
+Schwarze Zahlen, schwarzes Geld, keine Schwarzarbeit
+Es wird heiß wie deine Mutter in ihr'm Abendkleid
+Ground Zero Hexenkessel, dreihundert Fahrenheit
+[Hook]
+Für dich geht es von der Skyline zum Bordstein
+Ground Zero, Ground Zero
+Der Horror kehrt zurück wie in Saw II
+Ground Zero, Ground Zero
+Importierte Kriminalität
+Ground Zero, Ground Zero
+Wir werden sehen, wie ihr ganzen Fotzen mit dem Imageschaden lebt
+Ground Zero</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -923,9 +1412,65 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Intro: Bushido]Jeder weiß wie man mein'n Namen schreibtImmer noch der Staatsfeind Nummer einsWenn ihr mich mit andern Stars vergleichtSelbe Schule: DMX, Jigga, Biggie, Busta RhymesEGJ-Mastermind, fick dein'n StraßenhypeIch rechne in 'ner ander'n MaßeinheitIhr wollt' demonstrier'n, wie hart ihr seid?Ich hab' Laas gesignt, yeah[Part 1: Laas Unltd.]Erster Abi ohne schwarzen Bartwuchs, Vorschuss auf dem SparbuchAm ballen wie Prinz Marcus, mehr Beef als FastfoodHellblond, kein Maßkrug frag Bu--shido, euer Leben nicht zu ficken wär' in meinem Fall VertragsbruchMänner sitzen wieder um den Tisch wie in 'nem Skatclub, HabsuchtNiemand wird mich sign'n, der nur auf Zahl'n gucktZähne wie Graf Dracula, ich komm' in Camou--flage und rapp' für Nineties Bitches wie Erykah BaduBackpacker mit Gang im Rücken wie Tupac AmaruNa, was sagt ihr dazu? Nach zwanzig Jahr'n StarruhmAuf mei'm nächsten Album steht das EGJ-EmblemEs ist als trag' ich um den Hals 'ne Roc-a-Fella-ChainDas hier ist der Startschuss, nein, das hier ist ein WarnschussErwähn' nochmal mein'n Nam'n und dein Blingbling wird zu GrabschmuckGrasduft vom Star-Kush, Bushido gönnt ChartpushDie andern Labels laufen Vögel hinterher wie'n Jagdhund
-[Hook: Bushido &amp; Laas Unltd.]Yeah! Immer wenn wir komm'n, gibt es ein'n Big BangNehm'n uns alles, weil man uns hier nichts schenkt8 Mile – Seven Sins – Sixth SenseGestern ein Nichts, heute umgekehrt – Switch StanceImmer wenn wir komm'n, gibt es ein'n Big BangNehm'n uns alles, weil man uns hier nichts schenkt8 Mile – Seven Sins – Sixth SenseGestern ein Nichts, heute umgekehrt – Switch Stance[Part 2: Bushido]Yeah! Pay diese Dues hier schon länger, Wu-Tang foreverImmer noch ein Gangstarapper wie Juelz SantanaJedes Jahr erzähl'n die mir, mein Ruf wär' im KellerAber immer wenn ich release, ist new Golden-EraSag mir nicht, was realer Rap ist, ich hab' Premo-ScratchesMein Leben auf 'ner DVD – ich sitz' im KinosesselYeah, fick mal all deine TV-ConnectionsMein Name steht im Fernseh'n als ob er der Videotext istLaas ist King of FreestyleDoch die Szene kommt nur aus 'ner Pussy wie ein CreampieEs ist Endzeitstimmung wie bei Book of EliSag was über mich, du wirst geladen wie ein ScreenfileWir kenn'n dich in Berlin schonDu Affe hängst mit kleinen Mädchen wie Herr Nilsson, was each one teach one?Alles selbst beigebracht ohne einen LehrerJedes Album War Report - Capone-N-Noreaga
-[Hook: Bushido &amp; Laas Unltd.]Immer wenn wir komm'n, gibt es ein'n Big BangNehm'n uns alles, weil man uns hier nichts schenkt8 Mile – Seven Sins – Sixth SenseGestern ein Nichts, heute umgekehrt – Switch StanceImmer wenn wir komm'n, gibt es ein'n Big BangNehm'n uns alles, weil man uns hier nichts schenkt8 Mile – Seven Sins – Sixth SenseGestern ein Nichts, heute umgekehrt – Switch Stance</t>
+          <t>[Intro: Bushido]
+Jeder weiß wie man mein'n Namen schreibt
+Immer noch der Staatsfeind Nummer eins
+Wenn ihr mich mit andern Stars vergleichtSelbe Schule: DMX, Jigga, Biggie, Busta Rhymes
+EGJ-Mastermind, fick dein'n Straßenhype
+Ich rechne in 'ner ander'n Maßeinheit
+Ihr wollt' demonstrier'n, wie hart ihr seid?
+Ich hab' Laas gesignt, yeah
+[Part 1: Laas Unltd.]
+Erster Abi ohne schwarzen Bartwuchs, Vorschuss auf dem Sparbuch
+Am ballen wie Prinz Marcus, mehr Beef als Fastfood
+Hellblond, kein Maßkrug frag Bu-
+-shido, euer Leben nicht zu ficken wär' in meinem Fall Vertragsbruch
+Männer sitzen wieder um den Tisch wie in 'nem Skatclub, Habsucht
+Niemand wird mich sign'n, der nur auf Zahl'n guckt
+Zähne wie Graf Dracula, ich komm' in Camou-
+-flage und rapp' für Nineties Bitches wie Erykah Badu
+Backpacker mit Gang im Rücken wie Tupac Amaru
+Na, was sagt ihr dazu? Nach zwanzig Jahr'n Starruhm
+Auf mei'm nächsten Album steht das EGJ-Emblem
+Es ist als trag' ich um den Hals 'ne Roc-a-Fella-Chain
+Das hier ist der Startschuss, nein, das hier ist ein Warnschuss
+Erwähn' nochmal mein'n Nam'n und dein Blingbling wird zu Grabschmuck
+Grasduft vom Star-Kush, Bushido gönnt Chartpush
+Die andern Labels laufen Vögel hinterher wie'n Jagdhund
+[Hook: Bushido &amp;Laas Unltd.]
+Yeah! Immer wenn wir komm'n, gibt es ein'n Big Bang
+Nehm'n uns alles, weil man uns hier nichts schenkt
+8 Mile – Seven Sins – Sixth Sense
+Gestern ein Nichts, heute umgekehrt – Switch Stance
+Immer wenn wir komm'n, gibt es ein'n Big Bang
+Nehm'n uns alles, weil man uns hier nichts schenkt
+8 Mile – Seven Sins – Sixth Sense
+Gestern ein Nichts, heute umgekehrt –Switch Stance
+[Part 2: Bushido]
+Yeah! Pay diese Dues hier schon länger, Wu-Tang forever
+Immer noch ein Gangstarapper wie Juelz Santana
+Jedes Jahr erzähl'n die mir, mein Ruf wär' im KellerAber immer wenn ich release, ist new Golden-Era
+Sag mir nicht, was realer Rap ist, ich hab' Premo-Scratches
+Mein Leben auf 'ner DVD – ich sitz' im Kinosessel
+Yeah, fick mal all deine TV-Connections
+Mein Name steht im Fernseh'n als ob er der Videotext ist
+Laas ist King of Freestyle
+Doch die Szene kommt nur aus 'ner Pussy wie ein Creampie
+Es ist Endzeitstimmung wie bei Book of Eli
+Sag was über mich, du wirst geladen wie ein Screenfile
+Wir kenn'n dich in Berlin schon
+Du Affe hängst mit kleinen Mädchen wie Herr Nilsson, was each one teach one?
+Alles selbst beigebracht ohne einen Lehrer
+Jedes Album War Report - Capone-N-Noreaga
+[Hook: Bushido &amp;Laas Unltd.]
+Immer wenn wir komm'n, gibt es ein'n Big Bang
+Nehm'n uns alles, weil man uns hier nichts schenkt
+8 Mile – Seven Sins – Sixth Sense
+Gestern ein Nichts, heute umgekehrt – Switch Stance
+Immer wenn wir komm'n, gibt es ein'n Big Bang
+Nehm'n uns alles, weil man uns hier nichts schenkt
+8 Mile – Seven Sins – Sixth Sense
+Gestern ein Nichts, heute umgekehrt – Switch Stance</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -975,8 +1520,61 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yeah![Part 1: Bushido]Eure Zahl'n rot, so wie Heinz KetchupUnd ich bekomm' 'ne Goldene von mei'm Back-upKeine Zeit für Smalltalk, Imperium wie BoardwalkKrieg ist gut für mein Geschäft als wär' ich WarlordIch mach' fünf Million'n Umsatz ohne WerbeträgerAlso mach hier nicht auf knauserig, du ErbsenzählerDeine Mutter dreht die Cents um im SecondhandshopUnd gibt irgendwelchen alten Säcken HandjobUnd jetzt verpiss dich, hier gibt's nichts zu retten, HancockIch beförder' dich ins Niemandsland wie Michael Jacksons FanpostJetzt schließen sich die Fluchtwege, deutscher GangstarapMan hängt mir die Credits an wie einer SchlussszeneWas für Gangster? Vor den Cops machst du auf selbstkritischKaum im Käfig fängst du an zu sing'n wie ein WellensittichEuer ganzes Tourcatering ist ein SandwichtoasterUnd mein neues Haus sieht aus wie die Semperoper[Hook: Bushido]Du hast AngstAlle sind am bell'n, aber nur aus der DistanzWenn wir dich herbestell'n, tauchst du ab, du hast AngstWir haben keine Niederlagen in unsrer Bilanz, darum hast du AngstJunge, du hast AngstAlle sind am bell'n, aber nur aus der DistanzWenn wir dich herbestell'n, tauchst du ab, du hast AngstWir haben keine Niederlagen in unsrer Bilanz, darum hast du AngstJunge, du hast Angst
-[Part 2: Ali Bumaye]Der Dicke hat 'ne GoldsingleUnd du hängst nur im Netz rum wie 'ne KreuzspinneRapper sind so saugstark wie ZewablätterKirschen auf dem AmarenabecherDeine Bitch trägt Achselhaare statt 'n BüstenhalterIch fass' die Mülltonne nicht an als wär' sie RügenwalderBitches posten sexy Fotos wie ein Tumblr-BlogAber liegen steif im Bett herum so wie ein WanderstockLebenslang, Neukölln, SonnenalleeVierundzwanzig Neffen rufen an und sagen: „Komm Café!“Wenn du mich fragst, was ich mache: sitzenAsche in die Glas-Colaflasche schnipsenFrüher Basketball im Ghetto – Harlem GlobetrotterHeute spiel' ich Tour'n als wär' ich Joe CockerFressflash wie 'ne ganze KifferrundeAli Bumaye, ersdickerjunge[Hook: Bushido]Du hast AngstAlle sind am bell'n, aber nur aus der DistanzWenn wir dich herbestell'n, tauchst du ab, du hast AngstWir haben keine Niederlagen in unsrer Bilanz, darum hast du AngstJunge, du hast AngstAlle sind am bell'n, aber nur aus der DistanzWenn wir dich herbestell'n, tauchst du ab, du hast AngstWir haben keine Niederlagen in unsrer Bilanz, darum hast du AngstJunge, du hast Angst</t>
+          <t>Yeah!
+[Part 1: Bushido]
+Eure Zahl'n rot, so wie Heinz Ketchup
+Und ich bekomm' 'ne Goldene von mei'm Back-up
+Keine Zeit für Smalltalk, Imperium wie Boardwalk
+Krieg ist gut für mein Geschäft als wär' ich Warlord
+Ich mach' fünf Million'n Umsatz ohne Werbeträger
+Also mach hier nicht auf knauserig, du Erbsenzähler
+Deine Mutter dreht die Cents um im Secondhandshop
+Und gibt irgendwelchen alten Säcken Handjob
+Und jetzt verpiss dich, hier gibt's nichts zu retten, Hancock
+Ich beförder' dich ins Niemandsland wie Michael Jacksons Fanpost
+Jetzt schließen sich die Fluchtwege, deutscher Gangstarap
+Man hängt mir die Credits an wie einer Schlussszene
+Was für Gangster? Vor den Cops machst du auf selbstkritisch
+Kaum im Käfig fängst du an zu sing'n wie ein Wellensittich
+Euer ganzes Tourcatering ist ein Sandwichtoaster
+Und mein neues Haus sieht aus wie die Semperoper
+[Hook: Bushido]
+Du hast Angst
+Alle sind am bell'n, aber nur aus der Distanz
+Wenn wir dich herbestell'n, tauchst du ab, du hast Angst
+Wir haben keine Niederlagen in unsrer Bilanz, darum hast du Angst
+Junge, du hast Angst
+Alle sind am bell'n, aber nur aus der Distanz
+Wenn wir dich herbestell'n, tauchst du ab, du hast Angst
+Wir haben keine Niederlagen in unsrer Bilanz, darum hast du Angst
+Junge, du hast Angst
+[Part 2: Ali Bumaye]
+Der Dicke hat 'ne Goldsingle
+Und du hängst nur im Netz rum wie 'ne Kreuzspinne
+Rapper sind so saugstark wie Zewablätter
+Kirschen auf dem Amarenabecher
+Deine Bitch trägt Achselhaare statt 'n Büstenhalter
+Ich fass' die Mülltonne nicht an als wär' sie Rügenwalder
+Bitches posten sexy Fotos wie ein Tumblr-Blog
+Aber liegen steif im Bett herum so wie ein Wanderstock
+Lebenslang, Neukölln, Sonnenallee
+Vierundzwanzig Neffen rufen an und sagen: „Komm Café!“
+Wenn du mich fragst, was ich mache: sitzen
+Asche in die Glas-Colaflasche schnipsen
+Früher Basketball im Ghetto – Harlem Globetrotter
+Heute spiel' ich Tour'n als wär' ich Joe Cocker
+Fressflash wie 'ne ganze Kifferrunde
+Ali Bumaye, ersdickerjunge
+[Hook: Bushido]
+Du hast Angst
+Alle sind am bell'n, aber nur aus der Distanz
+Wenn wir dich herbestell'n, tauchst du ab, du hast Angst
+Wir haben keine Niederlagen in unsrer Bilanz, darum hast du Angst
+Junge, du hast Angst
+Alle sind am bell'n, aber nur aus der Distanz
+Wenn wir dich herbestell'n, tauchst du ab, du hast Angst
+Wir haben keine Niederlagen in unsrer Bilanz, darum hast du Angst
+Junge, du hast Angst</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1026,7 +1624,54 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Part]Ich hätte nie gedacht, dass ich den Song hier schreibeDoch ich weiß nicht, wie ich dich sonst erreicheManchmal fühlt sich's an, als ob du in meinen Gedanken sprichstUnd ich würd' so gerne antworten, doch ich kann es nichtNoch einmal mit dir reden könn'n von Angesicht zu AngesichtDenn es ist so viel passiert, seit du gegangen bistMan sagt, dass es nach jedem Ende auch ein'n Anfang gibtUnd wir erfahr'n, dass Anna-Maria wieder schwanger istEinen Tag nach deinem Tod schon wieder im KrankenhausIch erzähl' Aaliyah: Da sind Zwillinge in Mamas BauchDjibrail – endlich hab' ich mein'n Jung'nUnd Laila, sie hat deine Augen, deine Nase, deinen MundIch hatte Papa längst verzieh'nUnd deswegen holt' ich ihn nachdem du weg warst nach Berlin zu unsIch denke, Opa sein hat ihm gut getanGott ließ ihn glücklich werden, bevor er ihn zu sich nahmUnd ich dachte, dass ich endlich auch mein'n Frieden hab'Doch plötzlich war ich wegen einem Song auf jedem TitelblattWeißt du noch Shindy beim Frühstück, wie ruhig er war?Er ist heute für die Jugend sowas wie ein SuperstarUnd dicker Ali rappt jetzt auchOhne Kay sieht es mit dem Label wieder besser ausDoch ich hab' Stress zuhaus, Anna-Maria nahm die KinderZog mit ihnen weg, in dem Moment dacht' ich, das war's für immerEine Woche später, 2015 JanuarErhielt ich eine Nachricht von ihr, dass sie wieder schwanger warUnd im August erblickt mein zweiter Sohn das Licht der WeltIssa – wenn ich ihm ins Gesicht schau', dann seh' ich mich selbstIch hab' gewusst, dass er ein Zeichen istAnna-Maria kam zurück und alles war im GleichgewichtUnd mittlerweile war auch Oma gegang'nDu weißt es bestimmt, ich schätz', ihr seid dort oben zusamm'nDeine Schwester hilft uns, wo sie nur kann, die Kinder lieben sieUnd egal, wie verrückt sie spiel'n, es wird ihr nie zu vielDu bist nochmal Oma gewordenDenn an dei'm ersten Todestag ist Sercans erster Sohn Noah gebor'nUnd Ismail, er ist jetzt öfter zu Besuch bei den dreienEr schenkte ihn'n sogar ein EigenheimApropos: unser Haus ist immer noch nicht fertigDie Nachbarn woll'n uns nicht und die Baubehörde nervt michDie Hunde mussten weg und ich hab' sie im Tierheim abgesetztDafür hab' ich ein Aquaristik-FachgeschäftSoll dich von Uwe und Renate grüßenDie denken auch, ich wär' ihr Briefträger, Montry macht hier neuerdings auf TeenagerAaliyah geht bald in die erste KlasseUnd ich schreib' immer noch Songs, in den'n ich fremde Leute fertig macheDu weißt selbst: mir hat das Essen nie woanders geschmecktDoch meine Frau macht sich als Hausfrau und Mama perfektIch hoff', du siehst: mir geht es gut, Mama, keine AngstDeine Lieblingswollmütze liegt immer noch im KleiderschrankAaliyah will, dass wir den grün'n Frosch am Kühlschrank lassenNiemand darf ihn anfassen – er gehört Oma Lise</t>
+          <t>[Songtext zu „Oma Lise"]
+[Part]
+Ich hätte nie gedacht, dass ich den Song hier schreibe
+Doch ich weiß nicht, wie ich dich sonst erreiche
+Manchmal fühlt sich's an, als ob du in meinen Gedanken sprichst
+Und ich würd' so gerne antworten, doch ich kann es nicht
+Noch einmal mit dir reden könn'n von Angesicht zu Angesicht
+Denn es ist so viel passiert, seit du gegangen bist
+Man sagt, dass es nach jedem Ende auch ein'n Anfang gibtUnd wir erfahr'n, dass Anna-Maria wieder schwanger ist
+Einen Tag nach deinem Tod schon wieder im Krankenhaus
+Ich erzähl' Aaliyah: Da sind Zwillinge in Mamas Bauch
+Djibrail – endlich hab' ich mein'n Jung'n
+Und Laila, sie hat deine Augen, deine Nase, deinen Mund
+Ich hatte Papa längst verzieh'nUnd deswegen holt' ich ihn nachdem du weg warst nach Berlin zu unsIch denke, Opa sein hat ihm gut getanGott ließ ihn glücklich werden, bevor er ihn zu sich nahm
+Und ich dachte, dass ich endlich auch mein'n Frieden hab'Doch plötzlich war ich wegen einem Song auf jedem Titelblatt
+Weißt du noch Shindy beim Frühstück, wie ruhig er war?
+Er ist heute für die Jugend sowas wie ein Superstar
+Und dicker Ali rappt jetzt auch
+Ohne Kay sieht es mit dem Label wieder besser aus
+Doch ich hab' Stress zuhaus, Anna-Maria nahm die KinderZog mit ihnen weg, in dem Moment dacht' ich, das war's für immer
+Eine Woche später, 2015 Januar
+Erhielt ich eine Nachricht von ihr, dass sie wieder schwanger war
+Und im August erblickt mein zweiter Sohn das Licht der Welt
+Issa – wenn ich ihm ins Gesicht schau', dann seh' ich mich selbst
+Ich hab' gewusst, dass er ein Zeichen ist
+Anna-Maria kam zurück und alles war im Gleichgewicht
+Und mittlerweile war auch Oma gegang'n
+Du weißt es bestimmt, ich schätz', ihr seid dort oben zusamm'n
+Deine Schwester hilft uns, wo sie nur kann, die Kinder lieben sie
+Und egal, wie verrückt sie spiel'n, es wird ihr nie zu viel
+Du bist nochmal Oma geworden
+Denn an dei'm ersten Todestag ist Sercans erster Sohn Noah gebor'n
+Und Ismail, er ist jetzt öfter zu Besuch bei den dreien
+Er schenkte ihn'n sogar ein Eigenheim
+Apropos: unser Haus ist immer noch nicht fertig
+Die Nachbarn woll'n uns nicht und die Baubehörde nervt mich
+Die Hunde mussten weg und ich hab' sie im Tierheim abgesetzt
+Dafür hab' ich ein Aquaristik-Fachgeschäft
+Soll dich von Uwe und Renate grüßen
+Die denken auch, ich wär' ihr Briefträger, Montry macht hier neuerdings auf Teenager
+Aaliyah geht bald in die erste Klasse
+Und ich schreib' immer noch Songs, in den'n ich fremde Leute fertig mache
+Du weißt selbst: mir hat das Essen nie woanders geschmeckt
+Doch meine Frau macht sich als Hausfrau und Mama perfekt
+Ich hoff', du siehst: mir geht es gut, Mama, keine Angst
+Deine Lieblingswollmütze liegt immer noch im Kleiderschrank
+Aaliyah will, dass wir den grün'n Frosch am Kühlschrank lassen
+Niemand darf ihn anfassen – er gehört Oma Lise</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1076,9 +1721,66 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Intro]Yeah![Part 1]Es fühlt sich an als würd' ich grad mein Best-of schreibenDenn ab jetzt könnte jedes Album das letzte seinImmer noch so hungrig wie beim Warm-upHungrig, so als säße ich im BorchardtBushido in den Boxen auf dem SportplatzJeder Vorstadt, so lang bis ich das letzte Wort sag'Fünfzehn Jahre Hype um mein ImageB.I.G. – sky is the limit!Und wieder sind die Missgeburten wutentbranntDenn ich fick' noch ein paar Mütter vor dem RuhestandSie denken, ich schreib' meine MemoirenDoch ich mache Jagd auf Böhmermann als wär' ich ErdoğanUnd wenn ich gehe, hinterlasse ich ein schwarzes LochDoch ich bleib' für immer jung, so wie Karel GottWann für immer Schluss ist, entscheide ich nach Lust und LauneDoch meine Tochter ruft mich an und sagt, ich muss nach Hause[Hook]So lang sie Lügen über mich und meine Gang erzähl'nKann ich einfach nicht in Rente geh'nSo lange das Finanzamt weiter jeden meiner Cents umdrehtKann ich einfach nicht in Rente geh'nSo lang der Beat läuft auf meiner MPCKann ich einfach nicht in Rente geh'nWeil die andern es nicht schaffen, euch zu entertain'nKann ich einfach nicht in Rente geh'n
-[Part 2]Mein erstes Album hat mehr Klassiker als jedes Greatest HitsDie Eins auf jeder Liste eurer Deutschrap-FavoritesNoch immer up-to-date, state of the artSeit mei'm allerersten MajorvertragUnd glaub mir, nach dieser Schelle hilft kein IbuprofenDenn eure Stars war'n alle Fans auf kingbushido.deHab'n im Forum kommentiert und mein Leben gestalktEcho, Bambi, MTV – ich hab' jeden AwardImmer noch Most Wanted, explicit ContentKing of Kings bevor ihr's wissen konntetBerliner Straßen – keine Sonne, nur SchattenIn diesem Dschungel aus Beton hab' ich ein Genre erschaffenIch hab' es manifestiert mit einem Tritt in die TürTritt in die Tür, ihr könnt euch alle ficken wie früher, yeahIch mach' mein Solo hart, schreib' den Text im PoloshirtWeil ihr die Wahrheit nicht in irgendeiner Doku hört[Hook]So lang sie Lügen über mich und meine Gang erzähl'nKann ich einfach nicht in Rente geh'nSo lange das Finanzamt weiter jeden meiner Cents umdrehtKann ich einfach nicht in Rente geh'nSo lang der Beat läuft auf meiner MPCKann ich einfach nicht in Rente geh'nWeil die andern es nicht schaffen, euch zu entertain'nKann ich einfach nicht in Rente geh'n
-[Outro]„Still the beats bang, still doin' my thang“„I have visions of making a classic“„No one expected me to blow like this“„But hol' up, I'm not done yet“„Still the beats bang, still doin' my thang“„No one expected me to blow like this“„But hol' up, I'm not done yet“</t>
+          <t>[Intro]
+Yeah!
+[Part 1]
+Es fühlt sich an als würd' ich grad mein Best-of schreiben
+Denn ab jetzt könnte jedes Album das letzte sein
+Immer noch so hungrig wie beim Warm-up
+Hungrig, so als säße ich im Borchardt
+Bushido in den Boxen auf dem Sportplatz
+Jeder Vorstadt, so lang bis ich das letzte Wort sag'
+Fünfzehn Jahre Hype um mein Image
+B.I.G. – sky is the limit!
+Und wieder sind die Missgeburten wutentbrannt
+Denn ich fick' noch ein paar Mütter vor dem Ruhestand
+Sie denken, ich schreib' meine Memoiren
+Doch ich mache Jagd auf Böhmermann als wär' ich Erdoğan
+Und wenn ich gehe, hinterlasse ich ein schwarzes Loch
+Doch ich bleib' für immer jung, so wie Karel Gott
+Wann für immer Schluss ist, entscheide ich nach Lust und Laune
+Doch meine Tochter ruft mich an und sagt, ich muss nach Hause
+[Hook]
+So lang sie Lügen über mich und meine Gang erzähl'n
+Kann ich einfach nicht in Rente geh'n
+So lange das Finanzamt weiter jeden meiner Cents umdreht
+Kann ich einfach nicht in Rente geh'n
+So lang der Beat läuft auf meinerMPC
+Kann ich einfach nicht in Rente geh'n
+Weil die andern es nicht schaffen, euch zu entertain'n
+Kann ich einfach nicht in Rente geh'n
+[Part 2]
+Mein erstes Album hat mehr Klassiker als jedes Greatest Hits
+Die Eins auf jeder Liste eurer Deutschrap-Favorites
+Noch immer up-to-date, state of the art
+Seit mei'm allerersten Majorvertrag
+Und glaub mir, nach dieser Schelle hilft kein Ibuprofen
+Denn eure Stars war'n alle Fans auf kingbushido.de
+Hab'n im Forum kommentiert und mein Leben gestalkt
+Echo, Bambi, MTV – ich hab' jeden Award
+Immer noch Most Wanted,explicit Content
+King of Kings bevor ihr's wissen konntet
+Berliner Straßen – keine Sonne, nur Schatten
+In diesem Dschungel aus Beton hab' ich ein Genre erschaffen
+Ich hab' es manifestiert mit einem Tritt in die Tür
+Tritt in die Tür, ihr könnt euch alle ficken wie früher, yeah
+Ich mach' mein Solo hart, schreib' den Text im Poloshirt
+Weil ihr die Wahrheit nicht in irgendeiner Doku hört
+[Hook]
+So lang sie Lügen über mich und meine Gang erzähl'n
+Kann ich einfach nicht in Rente geh'n
+So lange das Finanzamt weiter jeden meiner Cents umdreht
+Kann ich einfach nicht in Rente geh'n
+So lang der Beat läuft auf meiner MPC
+Kann ich einfach nicht in Rente geh'n
+Weil die andern es nicht schaffen, euch zu entertain'n
+Kann ich einfach nicht in Rente geh'n
+[Outro]
+„Still the beats bang, still doin' my thang“„I have visions of making a classic“„No one expected me to blow like this“
+„But hol' up, I'm not done yet“
+„Still the beats bang, still doin' my thang“
+„No one expected me to blow like this“
+„But hol' up, I'm not done yet“</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1128,7 +1830,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Samples/Scratches]„Y'all better recognize“„I still hold the title“„Pass, check this“„You know what it mean“„I'm the ultimate“„Y'all better recognize“„How do I survive? I get out on a beat, I find a way to eat!“„Better recognize“„You're messing with the don“„My guns go *bum, bum* and your guns go *pow, pow*“</t>
+          <t>[Samples/Scratches]
+„Y'all better recognize“
+„I still hold the title“
+„Pass, check this“
+„You know what it mean“
+„I'm the ultimate“
+„Y'all better recognize“
+„How do I survive? I get out on a beat, I find a way to eat!“
+„Better recognize“
+„You're messing with the don“
+„My guns go *bum, bum* and your guns go *pow, pow*“</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1178,8 +1890,57 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Part 1]Das hier ist kein R&amp;B-Müll wie Akon, Kuschelmucke Trey SongzIch häng' seit zwanzig Jahren mit dem Clan rum wie RaekwonImmer noch im Fahndungsraster, Hülsen auf dem StraßenpflasterUnd die Kohle fließt wie das Blut in euer BadewasserFür alle meine Brüder, die im Knast saßenHaftschaden wegen diesen BastardenDie uns mit dem Blaulicht durch die Stadt jagenEgal, die Ware fällt noch immer von den LastwagenNie wieder Strafanstalt, Clownsmaske, KarnevalZeugen werden vor Verhandlung'n weg gemacht im NadelwaldOG wie O-Dog, Auftrag mit CodewortUnd ich bin über alle Berge wie ein SnowboardRapper woll'n jetzt sing'n wie ein KronzeugeDenken, das trägt Früchte, so wie ObstbäumeSchmücken sich mit fremden Federn, so wie RothäuteIch schick' euch Grüße durch Pistol'nläufe[Hook]Jeder Zug Taktik, ihr seid alle SchachmattRapper steh'n auf Plastik, hier ist euer ButtplugBitches, die sich gegenseitig ficken mit 'nem Strap-onDoch Sonny ist aus Teflon, Streetfighter CapcomJeder Zug Taktik, ihr seid alle SchachmattRapper steh'n auf Plastik, hier ist euer ButtplugBitches, die sich gegenseitig ficken mit 'nem Strap-onDoch Sonny ist aus Teflon, Streetfighter Capcom
-[Part 2]Yeah! Das ist kein Möchtegern-Ami-Müll wie Raptile, Freestyle mit Beck's LimeJede dieser Zeil'n wird zur Bildzeitungs-HeadlineKein Cent an Vater Staat, Bargeld unterm LaminatDu findest dein Ende, zu viel Schnee – StalingradDu bist höchstens für ein Fotoshoot im YachthafenDas Auto aus dei'm Clip ist nicht mal mein ErsatzwagenIch häng' nur noch in mei'm Aquaristik-FachladenIch wär' angeblich soft geworden – abwartenBeatrix von Storch, du bist ein Hundesohn wie Dieter NuhrDas geht unter die Gürtellinie, so wie 'ne IntimrasurIch kam zum Geschäftstermin in einer JoggingpantMit Softgetränk und brülle wieder wie der Frontmann einer GothicbandDu bist die allererste Fotze ohne EileiterNoch ein Wort und du bist ab sofort mein LeibeigenerWir halten es im engen Kreis wie in 'ner Ryhme-CypherÜber mich zu reden, kann ins Auge geh'n – Eyeliner[Hook]Jeder Zug Taktik, ihr seid alle SchachmattRapper steh'n auf Plastik, hier ist euer ButtplugBitches, die sich gegenseitig ficken mit 'nem Strap-onDoch Sonny ist aus Teflon, Streetfighter CapcomJeder Zug Taktik, ihr seid alle SchachmattRapper steh'n auf Plastik, hier ist euer ButtplugBitches, die sich gegenseitig ficken mit 'nem Strap-onDoch Sonny ist aus Teflon, Streetfighter Capcom</t>
+          <t>[Part 1]
+Das hier ist kein R&amp;B-Müll wie Akon, Kuschelmucke Trey Songz
+Ich häng' seit zwanzig Jahren mit dem Clan rum wie Raekwon
+Immer noch im Fahndungsraster, Hülsen auf dem Straßenpflaster
+Und die Kohle fließt wie das Blut in euer Badewasser
+Für alle meine Brüder, die im Knast saßen
+Haftschaden wegen diesen Bastarden
+Die uns mit dem Blaulicht durch die Stadt jagen
+Egal, die Ware fällt noch immer von den Lastwagen
+Nie wieder Strafanstalt, Clownsmaske, Karneval
+Zeugen werden vor Verhandlung'n weg gemacht im Nadelwald
+OG wie O-Dog, Auftrag mit Codewort
+Und ich bin über alle Berge wie ein Snowboard
+Rapper woll'n jetzt sing'n wie ein Kronzeuge
+Denken, das trägt Früchte, so wie Obstbäume
+Schmücken sich mit fremden Federn, so wie Rothäute
+Ich schick' euch Grüße durch Pistol'nläufe
+[Hook]
+Jeder Zug Taktik, ihr seid alle Schachmatt
+Rapper steh'n auf Plastik, hier ist euer Buttplug
+Bitches, die sich gegenseitig ficken mit 'nem Strap-on
+Doch Sonny ist aus Teflon, Streetfighter Capcom
+Jeder Zug Taktik, ihr seid alle Schachmatt
+Rapper steh'n auf Plastik, hier ist euer Buttplug
+Bitches, die sich gegenseitig ficken mit 'nem Strap-on
+Doch Sonny ist aus Teflon, Streetfighter Capcom
+[Part 2]
+Yeah!Das ist kein Möchtegern-Ami-Müll wie Raptile, Freestyle mit Beck's Lime
+Jede dieser Zeil'n wird zur Bildzeitungs-Headline
+Kein Cent an Vater Staat, Bargeld unterm Laminat
+Du findest dein Ende, zu viel Schnee – Stalingrad
+Du bist höchstens für ein Fotoshoot im YachthafenDas Auto aus dei'm Clip ist nicht mal mein Ersatzwagen
+Ich häng' nur noch in mei'm Aquaristik-Fachladen
+Ich wär' angeblich soft geworden – abwarten
+Beatrix von Storch, du bist ein Hundesohn wie Dieter Nuhr
+Das geht unter die Gürtellinie, so wie 'ne Intimrasur
+Ich kam zum Geschäftstermin in einer Joggingpant
+Mit Softgetränk und brülle wieder wie der Frontmann einer Gothicband
+Du bist die allererste Fotze ohne Eileiter
+Noch ein Wort und du bist ab sofort mein Leibeigener
+Wir halten es im engen Kreis wie in 'ner Ryhme-Cypher
+Über mich zu reden, kann ins Auge geh'n – Eyeliner
+[Hook]
+Jeder Zug Taktik, ihr seid alle Schachmatt
+Rapper steh'n auf Plastik, hier ist euer Buttplug
+Bitches, die sich gegenseitig ficken mit 'nem Strap-on
+Doch Sonny ist aus Teflon, Streetfighter Capcom
+Jeder Zug Taktik, ihr seid alle Schachmatt
+Rapper steh'n auf Plastik, hier ist euer Buttplug
+Bitches, die sich gegenseitig ficken mit 'nem Strap-on
+Doch Sonny ist aus Teflon, Streetfighter Capcom</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1229,8 +1990,43 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Yeah![Part 1]Wer hat euch Kindern beigebracht, was 'ne Breitling ist?7er BMW ist? CL Mercedes?Schwarze Cordon Sport und die Jeans in den SockenTRL Platz 1, mein Video lief über WochenNeongrün auf schwarz, altdeutsche GothicschriftDreitagebart, Alphajacke, BoxerschnittHautcreme, Haarwachs, Kokain, ZahnstocherBerlin, Neukölln, Crackküche, GaskocherAirmax 97, Silberketten, Carlo-SweaterHunderttausend vor VÖ gehen über den Barcodescanner8-Spur MPC, King of KingzPayday, Geld macht Geld, Majorcash, ZinseszinsAnalog, digital, erst auf Tape, dann CDUVB braungebrannt als käme ich aus Saint TropezDie unendliche Geschichte, meine DiskografieIch kenne bis heute keine Diplomatie, yeah[Hook]Sonny Black, jeder kennt michSie brauchen kein PhantombildKing Bushido – lebenslänglichUnd sie brauchen kein PhantombildSonny Black, jeder kennt michSie brauchen kein PhantombildKing Bushido – lebenslänglichUnd sie brauchen kein Phantombild
-[Part 2]Blauer Sweater, legendär, Nike, ParisRTL, Massenmedien, Hype um den BeefBart wie ein Salafist, zu Gast in den TalkshowsGhettosuperstar, schwarzes Haar, keine CornrowsKeine Interviews unter drei StundenRazzia – SEK kommt mit den PolizeihundenYeah, Shindy gesignt„Stress ohne Grund“-Single erscheintKleinmachnow, paar Million, Nachbarn starten PeditionBambi für Integration, nachts geweckt durchs BabyphoneZwanzig Riesen – Malediven, Privatjet und WasservillaSonny Black, CCN, schwarz-weiße CoverbilderImmer noch BMW, Butterfly, TrademarkBalle so wie Neymar – Rachezug BraveheartSOKO, Staatsanwalt, immer noch im VisierUnd immer noch wird jedes Sonny-Album indiziert[Hook]Sonny Black, jeder kennt michSie brauchen kein PhantombildKing Bushido – lebenslänglichUnd sie brauchen kein PhantombildSonny Black, jeder kennt michSie brauchen kein PhantombildKing Bushido – lebenslänglichUnd sie brauchen kein Phantombild</t>
+          <t>Yeah!
+[Part 1]
+Wer hat euch Kindern beigebracht, was 'ne Breitling ist?
+7er BMW ist? CL Mercedes?
+Schwarze Cordon Sport und die Jeans in den Socken
+TRL Platz 1, mein Video lief über Wochen
+Neongrün auf schwarz, altdeutsche Gothicschrift
+Dreitagebart, Alphajacke, Boxerschnitt
+Hautcreme, Haarwachs,Kokain, ZahnstocherBerlin, Neukölln, Crackküche, GaskocherAirmax 97, Silberketten, Carlo-Sweater
+Hunderttausend vor VÖ gehen über den Barcodescanner
+8-Spur MPC,King of Kingz
+Payday, Geld macht Geld, Majorcash, Zinseszins
+Analog, digital, erst auf Tape, dann CD
+UVB braungebrannt als käme ich aus Saint Tropez
+Die unendliche Geschichte, meine Diskografie
+Ich kenne bis heute keine Diplomatie, yeah
+[Hook]
+Sonny Black, jeder kennt michSie brauchen kein PhantombildKing Bushido – lebenslänglichUnd sie brauchen kein PhantombildSonny Black, jeder kennt michSie brauchen kein PhantombildKing Bushido – lebenslänglichUnd sie brauchen kein Phantombild
+[Part 2]
+Blauer Sweater, legendär, Nike, Paris
+RTL, Massenmedien, Hype um den Beef
+Bart wie ein Salafist, zu Gast in den Talkshows
+Ghettosuperstar, schwarzes Haar, keine Cornrows
+Keine Interviews unter drei Stunden
+Razzia – SEK kommt mit den Polizeihunden
+Yeah, Shindy gesignt
+„Stress ohne Grund“-Single erscheint
+Kleinmachnow, paar Million, Nachbarn starten Petition
+Bambi für Integration, nachts geweckt durchs Babyphone
+Zwanzig Riesen – Malediven, Privatjet und Wasservilla
+Sonny Black, CCN, schwarz-weiße Coverbilder
+Immer noch BMW, Butterfly, Trademark
+Balle so wie Neymar – Rachezug Braveheart
+SOKO, Staatsanwalt, immer noch im Visier
+Und immer noch wird jedes Sonny-Album indiziert
+[Hook]
+Sonny Black, jeder kennt michSie brauchen kein PhantombildKing Bushido – lebenslänglichUnd sie brauchen kein PhantombildSonny Black, jeder kennt michSie brauchen kein PhantombildKing Bushido – lebenslänglichUnd sie brauchen kein Phantombild</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1280,9 +2076,77 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Part 1: Frauenarzt]Wir sind anders als ihr, Bitch, wir polarisier'nWer will Stress ohne Grund? Das lässt sich organisier'nHeute ist ein guter Tag zum Radikalisier'nWestberlin ist das Mekka und sie lutscht auf allen Vier'nTempelhof ist nicht bereit, sich mit euch zu vernetzenWir richten uns noch immer nicht nach Regeln und GesetzenTAK-47 durchsiebt deinen SiebenerDas ist Gangstarap und nix für kleine KinderJap, ihr Rapper seid behindertDenn ihr buhlt nach Aufmerksamkeit, weiß der Teufel, was ihr Wichser denktKreuz die Finger zu 'nem W, wir zeigen GangsignsDu willst ein Feature, doch wirst immer nur ein Fan bleibenIch bin ein Urgestein, du FotzeDeine Hure kann nicht aufhör'n, ständig nur auf uns zu glotzenUnd ich ficke deine Mutter, Battle Reim PrioritätIch bleibe Berlin's Most Wanted, Proletik Poet, yeah[Hook: Taktlo$$]Wir sind anders als ihr, wir sind anders als ihrWir sind anders als ihr, ihr seid nicht wie wir, ahWir sind anders als ihr, wir sind anders als ihrDu Hurensohn, bap-ba-da-da-da-dada[Part 2: Bushido]Yeah! Du Tourifotze trinkst am Alexanderplatz BierAber das ist nicht Berlin, denn wir sind anders als ihrRiskiere eine dicke Lippe, so als ob ich Jay-Z binSiebenstelliger Gewinn ab Break-evenWir sind nicht vom selben SternWie oft soll ich euch kleinen Missgeburten noch die Welt erklär'n?Malten damals illegal an Hauswände BilderDie Namen steh'n noch immer da wie AushängeschilderVor lauter Hurensöhn'n kann ich kaum noch unterscheidenAber wenn ich will, find ich mit jedem einen Grund zu streitenWo ich esse, wirst du weggeschickt mit deiner BarclaycardAlso macht hier nicht auf Bikerclub nach einer HarleyfahrtIhr seid Schauspieler, so wie Heiner LauterbachDein Vater hat dich damals hingerotzt wie KautabakWir sind unnachahmlichWir ficken deine Mutter und wir meinen das nicht umgangssprachlich, yeah
-[Hook: Taktlo$$]Wir sind anders als ihr, wir sind anders als ihrWir sind anders als ihr, ihr seid nicht wie wir, ahWir sind anders als ihr, wir sind anders als ihrDu Hurensohn, bap-ba-da-da-da-dada[Part 3: Taktlo$$]Titel, Thesen, TemperamenteTittenfick ohne Ende (Hurensohn!)Keine Alimente (Hurensohn!) für den Staat (Hurensohn!)Dieser Bastard von StaatDer Staatsapparat eine HureSie will kassier'n, schließlich wird sie gut geficktUngeschickte fahren einen viel, steh'n mit einem Bein im BauSie wollen mich kriegen, (Eisenschwanz) - kann man nicht verbiegenKopfschuss für die Gesellschaft, in der 'n freies EnthaltenNicht gerne gesehen wird, dein Verhalten diktiert der NeidFür echte Zivilcourage fehlt dir der SchneidEs ist Zeit für eine RevolutionUnd für Morde erhalt' ich von meinem Gewissen AbsolutionFür meine Worte behalte ich das CopyrightEs sei geschissen auf eure KommentareUnd mit der Anklage wegen Volksverhetzung wisch' ich mir den Arsch abIch hab' Rap weiterentwickeltDu wirst immer noch gewickelt, hier ist dein TicketFür Albtraumcity WestberlinUntergrund, für immer …
-[Hook: Taktlo$$]Wir sind anders als ihr, wir sind anders als ihrWir sind anders als ihr, ihr seid nicht wie wir, ahWir sind anders als ihr, wir sind anders als ihrDu Hurensohn, bap-ba-da-da-da-dada</t>
+          <t xml:space="preserve">[Part 1: Frauenarzt]
+Wir sind anders als ihr, Bitch, wir polarisier'n
+Wer will Stress ohne Grund? Das lässt sich organisier'n
+Heute ist ein guter Tag zum Radikalisier'n
+Westberlin ist das Mekka und sie lutscht auf allen Vier'n
+Tempelhof ist nicht bereit, sich mit euch zu vernetzen
+Wir richten uns noch immer nicht nach Regeln und Gesetzen
+TAK-47 durchsiebt deinen Siebener
+Das ist Gangstarap und nix für kleine Kinder
+Jap, ihr Rapper seid behindert
+Denn ihr buhlt nach Aufmerksamkeit, weiß der Teufel, was ihr Wichser denkt
+Kreuz die Finger zu 'nem W, wir zeigen Gangsigns
+Du willst ein Feature, doch wirst immer nur ein Fan bleiben
+Ich bin ein Urgestein, du Fotze
+Deine Hure kann nicht aufhör'n, ständig nur auf uns zu glotzen
+Und ich ficke deine Mutter, Battle Reim Priorität
+Ich bleibe Berlin's Most Wanted, Proletik Poet, yeah
+[Hook: Taktlo$$]
+Wir sind anders als ihr, wir sind anders als ihr
+Wir sind anders als ihr, ihr seid nicht wie wir, ah
+Wir sind anders als ihr, wir sind anders als ihr
+Du Hurensohn, bap-ba-da-da-da-dada
+[Part 2: Bushido]
+Yeah! Du Tourifotze trinkst am Alexanderplatz Bier
+Aber das ist nicht Berlin, denn wir sind anders als ihr
+Riskiere eine dicke Lippe, so als ob ich Jay-Z bin
+Siebenstelliger Gewinn ab Break-even
+Wir sind nicht vom selben Stern
+Wie oft soll ich euch kleinen Missgeburten noch die Welt erklär'n?
+Malten damals illegal an Hauswände Bilder
+Die Namen steh'n noch immer da wie Aushängeschilder
+Vor lauter Hurensöhn'n kann ich kaum noch unterscheiden
+Aber wenn ich will, find ich mit jedem einen Grund zu streiten
+Wo ich esse, wirst du weggeschickt mit deiner Barclaycard
+Also macht hier nicht auf Bikerclub nach einer Harleyfahrt
+Ihr seid Schauspieler, so wie Heiner Lauterbach
+Dein Vater hat dich damals hingerotzt wie Kautabak
+Wir sind unnachahmlich
+Wir ficken deine Mutter und wir meinen das nicht umgangssprachlich, yeah
+[Hook: Taktlo$$]
+Wir sind anders als ihr, wir sind anders als ihr
+Wir sind anders als ihr, ihr seid nicht wie wir, ah
+Wir sind anders als ihr, wir sind anders als ihr
+Du Hurensohn, bap-ba-da-da-da-dada
+[Part 3: Taktlo$$]
+Titel, Thesen, Temperamente
+Tittenfick ohne Ende (Hurensohn!)
+Keine Alimente (Hurensohn!) für den Staat (Hurensohn!)
+Dieser Bastard von Staat
+Der Staatsapparat eine Hure
+Sie will kassier'n, schließlich wird sie gut gefickt
+Ungeschickte fahren einen viel, steh'n mit einem Bein im Bau
+Sie wollen mich kriegen, (Eisenschwanz) - kann man nicht verbiegen
+Kopfschuss für die Gesellschaft, in der 'n freies Enthalten
+Nicht gerne gesehen wird, dein Verhalten diktiert der Neid
+Für echte Zivilcourage fehlt dir der Schneid
+Es ist Zeit für eine Revolution
+Und für Morde erhalt' ich von meinem Gewissen Absolution
+Für meine Worte behalte ich das Copyright
+Es sei geschissen auf eure Kommentare
+Und mit der Anklage wegen Volksverhetzung wisch' ich mir den Arsch ab
+Ich hab' Rap weiterentwickelt
+Du wirst immer noch gewickelt, hier ist dein Ticket
+Für Albtraumcity Westberlin
+Untergrund, für immer …
+[Hook: Taktlo$$]
+Wir sind anders als ihr, wir sind anders als ihr
+Wir sind anders als ihr, ihr seid nicht wie wir, ah
+Wir sind anders als ihr, wir sind anders als ihr
+Du Hurensohn, bap-ba-da-da-da-dada
+</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1332,9 +2196,68 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Hook]Das ist kein Gangsterrap im Tank-TopUnd ich scheiß auf eure FamiliesMachen 'nen Affen vor den Fans, dochRapper küssen meine NMDsYeah, NMDsRapper küssen meine NMDsMachen 'nen Affen vor den Fans, dochRapper küssen meine NMDs, yeah[Part 1]Diese Rapper leben broke in der Einzimmer-AbsteigeAber komm'n in' Club mit 'ner Jacke voller StrasssteineMöchtegern-VIP, Großraum-DiskorapperKonto ist im Dispo, aber denken, sie sind rich foreverEure Bitches tragen H&amp;M-KindergrößenUnd ihr versucht zu imponier'n, mit euren Mindestlöhn'nVerlagsvertrag und spiel'n sich auf wie MajoractsIhr seid Kinder, die mit Attrappen spiel'n – Laser TagEntweder machen sie auf Künstler – Van GoghOder sie machen auf Dealer – LammbockDeine Mutter will den CumshotKopf auf und ab, Headbangen, Punk-RockEure Hip-Hop-Labels alle bankrottDeine Mucke unisex wie Huren aus BangkokDu hast 'ne Banane und zwei Eier in der LunchboxVerpiss dich in die Fotze, wo du raus kamst, du Schwanzkopf!
-[Hook]Yeah, das ist kein Gangsterrap im Tank-TopUnd ich scheiß auf eure FamiliesMachen 'nen Affen vor den Fans, dochRapper küssen meine NMDsYeah, NMDsRapper küssen meine NMDsMachen 'nen Affen vor den Fans, dochRapper küssen meine NMDs, yeah[Part 2]Du willst ein'n Hurensohn seh'n? Schau dich Missgestalt anIch piss' dir ins Gesicht und nenn' es LippenbalsamWas für Hotelsuite, Mann? Du schläfst vor einem BankomatenUnd musst den halben Monat hungern für die LamboratenDu willst Champagne? Ich gebe dir NatursektUnd deine Eltern geh'n als Ritter auf das BurgfestFahr' dir keine Filme auf dein'n AfrotrapWo du in zehn Jahren bist? Frag dich, wo ist Zlatko jetzt?Ihr macht die ganze Woche online auf Karate KidSonntag sitzt ihr bei der Oma und esst TafelspitzIhr seid so Gangster wie ein KartentrickDeine Mutter schlürft das Sperma aus den Kondomen im ArtemisUnd dein Vater wichst auf DamenslipsDieser notgeile Taugenichts und HabenichtsIhr hatte viel zu lange GnadenfristEin, zwei Schellen für euch Hurensöhne schaden nicht
-[Hook]Yeah, das ist kein Gangsterrap im Tank-TopUnd ich scheiß auf eure FamiliesMachen 'nen Affen vor den Fans, dochRapper küssen meine NMDsYeah, NMDsRapper küssen meine NMDsMachen 'nen Affen vor den Fans, dochRapper küssen meine NMDs, yeah</t>
+          <t xml:space="preserve">[Hook]
+Das ist kein Gangsterrap im Tank-Top
+Und ich scheiß auf eure Families
+Machen 'nen Affen vor den Fans, doch
+Rapper küssen meine NMDs
+Yeah, NMDs
+Rapper küssen meine NMDs
+Machen 'nen Affen vor den Fans, doch
+Rapper küssen meine NMDs, yeah
+[Part 1]
+Diese Rapper leben broke in der Einzimmer-Absteige
+Aber komm'n in' Club mit 'ner Jacke voller Strasssteine
+Möchtegern-VIP, Großraum-Diskorapper
+Konto ist im Dispo, aber denken, sie sind rich forever
+Eure Bitches tragen H&amp;M-Kindergrößen
+Und ihr versucht zu imponier'n, mit euren Mindestlöhn'n
+Verlagsvertrag und spiel'n sich auf wie Majoracts
+Ihr seid Kinder, die mit Attrappen spiel'n – Laser Tag
+Entweder machen sie auf Künstler – Van Gogh
+Oder sie machen auf Dealer – Lammbock
+Deine Mutter will den Cumshot
+Kopf auf und ab, Headbangen, Punk-Rock
+Eure Hip-Hop-Labels alle bankrott
+Deine Mucke unisex wie Huren aus Bangkok
+Du hast 'ne Banane und zwei Eier in der Lunchbox
+Verpiss dich in die Fotze, wo du raus kamst, du Schwanzkopf!
+[Hook]
+Yeah, das ist kein Gangsterrap im Tank-Top
+Und ich scheiß auf eure Families
+Machen 'nen Affen vor den Fans, doch
+Rapper küssen meine NMDs
+Yeah, NMDs
+Rapper küssen meine NMDs
+Machen 'nen Affen vor den Fans, doch
+Rapper küssen meine NMDs, yeah
+[Part 2]
+Du willst ein'n Hurensohn seh'n? Schau dich Missgestalt an
+Ich piss' dir ins Gesicht und nenn' es Lippenbalsam
+Was für Hotelsuite, Mann? Du schläfst vor einem Bankomaten
+Und musst den halben Monat hungern für die Lamboraten
+Du willst Champagne? Ich gebe dir Natursekt
+Und deine Eltern geh'n als Ritter auf das Burgfest
+Fahr' dir keine Filme auf dein'n Afrotrap
+Wo du in zehn Jahren bist? Frag dich, wo ist Zlatko jetzt?
+Ihr macht die ganze Woche online auf Karate Kid
+Sonntag sitzt ihr bei der Oma und esst Tafelspitz
+Ihr seid so Gangster wie ein Kartentrick
+Deine Mutter schlürft das Sperma aus den Kondomen im Artemis
+Und dein Vater wichst auf Damenslips
+Dieser notgeile Taugenichts und Habenichts
+Ihr hatte viel zu lange Gnadenfrist
+Ein, zwei Schellen für euch Hurensöhne schaden nicht
+[Hook]
+Yeah, das ist kein Gangsterrap im Tank-Top
+Und ich scheiß auf eure Families
+Machen 'nen Affen vor den Fans, doch
+Rapper küssen meine NMDs
+Yeah, NMDs
+Rapper küssen meine NMDs
+Machen 'nen Affen vor den Fans, doch
+Rapper küssen meine NMDs, yeah
+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1384,8 +2307,56 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[Part 1]Yeah! Rapper reden über Kilos, schreiben Dealer in die BioWarum macht dann keiner Mios außer mir und Sido?Ihr Junkies sitzt Papa auf der Tasche – Al BundyWürd' ich heut noch Lines zieh'n, dann höchstens von mei'm BambiDrogenopfer rappen über Tony SosaDoch du redest hier mit Hannibal wie Jodie FosterIhr fantasiert von Unterwelt, doch kratzt nur an der OberflächeUnd lauft in die schwarze Wand nach einer KokaretteKönnt kein Koks von weißem Heroin unterscheidenAber wollt nach einer Mio Klicks 'n Deal unterschreibenHäng'n in Shishabars und ziehen Nasen von ihr'm HandyTun als wär' ihr Busbahnhof der Hafen von Miami4k-Slowmotion-SpiegelreflexAber keiner von euch kann ein Kilo liefern in echtErzähl mir nichts von jüdischen Anwälten oder BtMIhr schuldet mir Prozente, ihr seid Möchtegern-CCN[Hook]Ihr habt Mios auf der Bank, ihr seid Cocaine CowboysSchmuggelt Kilos in das Land, alles Cocaine CowboysIch versteh' nicht, was ihr redet, so als wär' es MandarinIhr seid nur in eurer Fantasie Cocaine CowboysIhr habt Mios auf der Bank, ihr seid Cocaine CowboysSchmuggelt Kilos in das Land, alles Cocaine CowboysIch versteh' nicht, was ihr redet, so als wär' es MandarinIhr seid nur in eurer Fantasie Cocaine Cowboys
-[Part 2]Die erzähl'n, dass sie mit dieser Scheiße Unmengen machenHab'n nicht ein verficktes Gramm in ihren UmhängetaschenOlympique Marseille oder Nikeanzug von PSGErinnert euch an Sonny in sei'm BMW, ihr MistkinderIhr seid nur kleine Fische wie SashimiUnd jeder Markus macht mir auf Habibi, HabibiFake-Versace-Hemden unterm KronleuchterFliegen mit der Drohne um die HochhäuserSie posten ihre lächerlichen VorschüsseWerden von ihr'm Drecksteam gefeiert wie ein TorschützeSpiel'n sich auf als wär'n sie Escobar in ihrer DorfdisseHartz-IV-Dealer, dieser Typ stand auf der ForbeslisteIhr klebt am Arsch von reichen Leuten, so wie SportsitzeAber wir sind aggressiv und stechen wie 'ne HornisseIch ficke euren FantasyrapEs ist Sonny Black – Realitycheck, yeah![Hook]Ihr habt Mios auf der Bank, ihr seid Cocaine CowboysSchmuggelt Kilos in das Land, alles Cocaine CowboysIch versteh' nicht, was ihr redet, so als wär' es MandarinIhr seid nur in eurer Fantasie Cocaine CowboysIhr habt Mios auf der Bank, ihr seid Cocaine CowboysSchmuggelt Kilos in das Land, alles Cocaine CowboysIch versteh' nicht, was ihr redet, so als wär' es MandarinIhr seid nur in eurer Fantasie Cocaine Cowboys</t>
+          <t>[Songtext zu „Cocaine Cowboys"]
+[Part 1]
+Yeah! Rapper reden über Kilos, schreiben Dealer in die Bio
+Warum macht dann keiner Mios außer mir und Sido?
+Ihr Junkies sitzt Papa auf der Tasche – Al Bundy
+Würd' ich heut noch Lines zieh'n, dann höchstens von mei'm Bambi
+Drogenopfer rappen über Tony SosaDoch du redest hier mit Hannibal wie Jodie Foster
+Ihr fantasiert von Unterwelt, doch kratzt nur an der Oberfläche
+Und lauft in die schwarze Wand nach einer Kokarette
+Könnt kein Koks von weißem Heroin unterscheidenAber wollt nach einer Mio Klicks 'n Deal unterschreiben
+Häng'n in Shishabars und ziehen Nasen von ihr'm Handy
+Tun als wär' ihr Busbahnhof der Hafen von Miami
+4k-Slowmotion-Spiegelreflex
+Aber keiner von euch kann ein Kilo liefern in echt
+Erzähl mir nichts von jüdischen Anwälten oder BtM
+Ihr schuldet mir Prozente, ihr seid Möchtegern-CCN
+[Hook]
+Ihr habt Mios auf der Bank, ihr seid Cocaine Cowboys
+Schmuggelt Kilos in das Land, alles Cocaine Cowboys
+Ich versteh' nicht, was ihr redet, so als wär' es Mandarin
+Ihr seid nur in eurer Fantasie Cocaine Cowboys
+Ihr habt Mios auf der Bank, ihr seid Cocaine Cowboys
+Schmuggelt Kilos in das Land, alles Cocaine Cowboys
+Ich versteh' nicht, was ihr redet, so als wär' es Mandarin
+Ihr seid nur in eurer Fantasie Cocaine Cowboys
+[Part 2]
+Die erzähl'n, dass sie mit dieser Scheiße Unmengen machen
+Hab'n nicht ein verficktes Gramm in ihren Umhängetaschen
+Olympique Marseille oder Nikeanzug von PSG
+Erinnert euch an Sonny in sei'm BMW, ihr Mistkinder
+Ihr seid nur kleine Fische wie Sashimi
+Und jeder Markus macht mir auf Habibi, Habibi
+Fake-Versace-Hemden unterm KronleuchterFliegen mit der Drohne um die Hochhäuser
+Sie posten ihre lächerlichen Vorschüsse
+Werden von ihr'm Drecksteam gefeiert wie ein Torschütze
+Spiel'n sich auf als wär'n sie Escobar in ihrerDorfdisse
+Hartz-IV-Dealer, dieser Typ stand auf der Forbesliste
+Ihr klebt am Arsch von reichen Leuten, so wie Sportsitze
+Aber wir sind aggressiv und stechen wie 'ne Hornisse
+Ich ficke euren Fantasyrap
+Es ist Sonny Black – Realitycheck, yeah!
+[Hook]
+Ihr habt Mios auf der Bank, ihr seid Cocaine Cowboys
+Schmuggelt Kilos in das Land, alles Cocaine Cowboys
+Ich versteh' nicht, was ihr redet, so als wär' es Mandarin
+Ihr seid nur in eurer Fantasie Cocaine Cowboys
+Ihr habt Mios auf der Bank, ihr seid Cocaine Cowboys
+Schmuggelt Kilos in das Land, alles Cocaine Cowboys
+Ich versteh' nicht, was ihr redet, so als wär' es Mandarin
+Ihr seid nur in eurer Fantasie Cocaine Cowboys</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1435,9 +2406,37 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">[Hook: M.O.030]Bruder, alles wird wahrMein Traum, er wird wahr, bau' ein Haus für meine Ma'Bruder, alles wird wahr100k, ich geb' alles aus, habe noch genug auf meinem Konto draufAlles wird wahrReich werden, alles ausgeben, trotzdem reich sterbenAlles wird wahrPlatinplatten an der Wand, Designerwohnung Ausblick auf den StrandBruder, alles wird wahr[Part 1: M.O.030]Das Neue Berlin kommt, Deutschrap ist am ArschHip-Hop-Portale hängen mir dann am ArschFreuen sich auf Interview, doch ich sag' abMach easy 100k, easy 100kAlles wird wahr, über Nacht werd' ich StarDicka, viele kommen und gehen, doch mein Team ist noch daDicka, viele wollen mir reinredenIn nicht mal zwei Jahr'n hätten sie gerne mein Leben[Hook: M.O.030]Alles wird wahrMein Traum, er wird wahr, bau' ein Haus für meine Ma'Bruder, alles wird wahr100k, ich geb' alles aus, habe noch genug auf meinem Konto draufAlles wird wahrReich werden, alles ausgeben, trotzdem reich sterbenAlles wird wahrPlatinplatten an der Wand, Designerwohnung, Ausblick auf den StrandBruder, alles wird wahr
-[Part 2: M.O.030]Das Neue Berlin kommt, pro Gig 10kWas A&amp;R, Dicka, was Manager?Labels rufen an, ich geh' nicht ranUnter einer Mille alles uninteressantWill 'n Benzer in weiß und 'n Benzer in schwarzNur das Beste für die Gang, ey, kein Cent wird gespartDicka, viele wollen mir reinredenIn nicht mal zwei Jahren hätten sie gerne mein LebenAlles wird wahr[Bridge: M.O.030]Früher hab' ich nicht dran geglaubt, aber alles wird wahrBau' ein Haus für meine Ma', Bruder, alles wird wahrIch zieh' den Jackpot, Bruder, alles wird wahrIch mach' nie wieder den Drecksjob[Hook: M.O.030]Bruder, alles wird wahrMein Traum, er wird wahr, bau' ein Haus für meine Ma'Bruder, alles wird wahr100k, ich geb' alles aus, habe noch genug auf meinem Konto draufAlles wird wahrReich werden, alles ausgeben, trotzdem reich sterbenAlles wird wahrPlatinplatten an der Wand, Designerwohnung Ausblick auf den StrandBruder, alles wird wahr
-[Part 3: Bushido}Yeah! Ich hab' alles wahr gemachtDafür gesorgt, dass ich für immer was im Magen hab'Dafür gesorgt, dass jeder Wichser hier mein'n Nam'n kenntAngesehen in Chefetagen oder StraßengangsIch hab' die Million'n geknacktAlben verkauft, und zwar million'nfachAlles ohne ein'n WerbespotVon der Dönerbude hin zum SternekochVon der Straße auf die Bretter, die die Welt bedeutenUnd zwar für immer mit denselben LeutenKenne das Gefühl, wenn man kein'n Pfennig hatKenne das Gefühl, wenn man verdient, so wie ein TennisassAlles wird wahr, bezahl' alles in barWie oft ich fall' ist egal!Leb' diesen Traum schon seit fast zwanzig Jahr'nBin weit gekomm'n, als würd' ich Lastwagen fahr'n[Hook: M.O.030]Bruder, alles wird wahrMein Traum, er wird wahr, bau' ein Haus für meine Ma'Bruder, alles wird wahr100k, ich geb' alles aus, habe noch genug auf meinem Konto draufAlles wird wahrReich werden, alles ausgeben, trotzdem reich sterbenAlles wird wahrPlatinplatten an der Wand, Designerwohnung Ausblick auf den StrandBruder, alles wird wahr
+          <t xml:space="preserve">[Hook: M.O.030]
+Bruder, alles wird wahrMein Traum, er wird wahr, bau' ein Haus für meine Ma'Bruder, alles wird wahr100k, ich geb' alles aus, habe noch genug auf meinem Konto draufAlles wird wahrReich werden, alles ausgeben, trotzdem reich sterbenAlles wird wahrPlatinplatten an der Wand, Designerwohnung Ausblick auf den StrandBruder, alles wird wahr
+[Part 1: M.O.030]
+Das Neue Berlin kommt, Deutschrap ist am ArschHip-Hop-Portale hängen mir dann am ArschFreuen sich auf Interview, doch ich sag' abMach easy 100k, easy 100kAlles wird wahr, über Nacht werd' ich StarDicka, viele kommen und gehen, doch mein Team ist noch daDicka, viele wollen mir reinredenIn nicht mal zwei Jahr'n hätten sie gerne mein Leben
+[Hook: M.O.030]
+Alles wird wahrMein Traum, er wird wahr, bau' ein Haus für meine Ma'Bruder, alles wird wahr100k, ich geb' alles aus, habe noch genug auf meinem Konto draufAlles wird wahrReich werden, alles ausgeben, trotzdem reich sterbenAlles wird wahrPlatinplatten an der Wand, Designerwohnung, Ausblick auf den StrandBruder, alles wird wahr
+[Part 2: M.O.030]
+Das Neue Berlin kommt, pro Gig 10kWas A&amp;R, Dicka, was Manager?Labels rufen an, ich geh' nicht ranUnter einer Mille alles uninteressantWill 'n Benzer in weiß und 'n Benzer in schwarzNur das Beste für die Gang, ey, kein Cent wird gespartDicka, viele wollen mir reinredenIn nicht mal zwei Jahren hätten sie gerne mein LebenAlles wird wahr
+[Bridge: M.O.030]
+Früher hab' ich nicht dran geglaubt, aber alles wird wahrBau' ein Haus für meine Ma', Bruder, alles wird wahrIch zieh' den Jackpot, Bruder, alles wird wahrIch mach' nie wieder den Drecksjob
+[Hook: M.O.030]
+Bruder, alles wird wahrMein Traum, er wird wahr, bau' ein Haus für meine Ma'Bruder, alles wird wahr100k, ich geb' alles aus, habe noch genug auf meinem Konto draufAlles wird wahrReich werden, alles ausgeben, trotzdem reich sterbenAlles wird wahrPlatinplatten an der Wand, Designerwohnung Ausblick auf den StrandBruder, alles wird wahr
+[Part 3: Bushido}
+Yeah! Ich hab' alles wahr gemacht
+Dafür gesorgt, dass ich für immer was im Magen hab'
+Dafür gesorgt, dass jeder Wichser hier mein'n Nam'n kennt
+Angesehen in Chefetagen oder Straßengangs
+Ich hab' die Million'n geknackt
+Alben verkauft, und zwar million'nfach
+Alles ohne ein'n Werbespot
+Von der Dönerbude hin zum Sternekoch
+Von der Straße auf die Bretter, die die Welt bedeuten
+Und zwar für immer mit denselben Leuten
+Kenne das Gefühl, wenn man kein'n Pfennig hat
+Kenne das Gefühl, wenn man verdient, so wie ein Tennisass
+Alles wird wahr, bezahl' alles in bar
+Wie oft ich fall' ist egal!
+Leb' diesen Traum schon seit fast zwanzig Jahr'n
+Bin weit gekomm'n, als würd' ich Lastwagen fahr'n
+[Hook: M.O.030]
+Bruder, alles wird wahrMein Traum, er wird wahr, bau' ein Haus für meine Ma'Bruder, alles wird wahr100k, ich geb' alles aus, habe noch genug auf meinem Konto draufAlles wird wahrReich werden, alles ausgeben, trotzdem reich sterbenAlles wird wahrPlatinplatten an der Wand, Designerwohnung Ausblick auf den StrandBruder, alles wird wahr
 </t>
         </is>
       </c>
@@ -1488,9 +2487,67 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[Hook]Meine Feinde enden unter WasserUnter Wasser wie AquarienfischeIch weiß, du fühlst dich unantastbarDoch ich hab' Nam'n auf der schwarzen ListeNam'n auf der schwarzen ListeStreich' sie mit dem Mont BlancTag für Tag ein paar VermissteIn Plastik eingewickelt wie ein Bonbon[Part 1]Jeder Typ mit drei Cousins tut auf SyndikatRapper hol'n sich Livedrummer, denken sie sind Linkin ParkAutotune und Anzüge von FußballclubsKanaken ohne SchulabschlussAMGs im Clip, doch kein Geld für Super-PlusMachen eine Schussverletzung aus 'nem BlutergussProteinshakes und PutenbrustBevor sie sich für Geld ficken, gibt es noch ein'n BruderkussFranzosenslang und Ein-Wort-Scooter-HooksIhr endet alle samt in Plastik eingepackt wie Chupa ChupsEure Sneaker sind zu klein für meinen FußabdruckDer einzige Rapper hier im Land, den man nicht googlen mussDie Musikindustrie ist eine LachnummerSonny boykottiert den Echo, schon geht er den Bach runterDie haben wieder ein'n gefunden auf den BahngleisenUnd wieder kann ich von der Liste ein'n Nam'n streichen, yeah!
-[Hook]Meine Feinde enden unter WasserUnter Wasser wie AquarienfischeIch weiß, du fühlst dich unantastbarDoch ich hab' Nam'n auf der schwarzen ListeNam'n auf der schwarzen ListeStreich' sie mit dem Mont BlancTag für Tag ein paar VermissteIn Plastik eingewickelt wie ein Bonbon[Part 2]Ich hab' Nam'n aus der Politik, Nam'n aus der LügenpresseNam'n aus den Vorständen, Nam'n ihrer FührungskräfteNadelstreifen und die teuersten Tribühn'nplätzeNiemand überlebt, überall ÜberrestePlötzlich stottern eure oberen ZehntausendAls ob sie ein'n Logopäden brauchenA-Promis werden alle paranoidDie Wichser schlagen sogar aus 'ner Spendengala ProfitMeine Liste ist zu lang geworden, ich brauch' einen AktenständerDa wo wir agier'n, fällt kein Blaulicht auf die SchattenmännerIm Hinterzimmer sitzen WaffenhändlerUnd die müssen sich vor mir verneigen wie vorm WasserspenderIch hab' Cops auf den GehaltslistenIhr habt von der Halbwelt nur HalbwissenWieder landet einer bei den Würmern und den AmeisenUnd wieder kann ich von der Liste ein'n Nam'n steichen, yeah
-[Hook]Meine Feinde enden unter WasserUnter Wasser wie AquarienfischeIch weiß, du fühlst dich unantastbarDoch ich hab' Nam'n auf der schwarzen ListeNam'n auf der schwarzen ListeStreich' sie mit dem Mont BlancTag für Tag ein paar VermissteIn Plastik eingewickelt wie ein Bonbon</t>
+          <t>[Songtext zu „Schwarze Liste“]
+[Hook]
+Meine Feinde enden unter Wasser
+Unter Wasser wie Aquarienfische
+Ich weiß, du fühlst dich unantastbar
+Doch ich hab' Nam'n auf der schwarzen Liste
+Nam'n auf der schwarzen Liste
+Streich' sie mit dem Mont Blanc
+Tag für Tag ein paar Vermisste
+In Plastik eingewickelt wie ein Bonbon
+[Part 1]
+Jeder Typ mit drei Cousins tut auf Syndikat
+Rapper hol'n sich Livedrummer, denken sie sind Linkin Park
+Autotune und Anzüge von FußballclubsKanaken ohne Schulabschluss
+AMGs im Clip, doch kein Geld für Super-Plus
+Machen eine Schussverletzung aus 'nem Bluterguss
+Proteinshakes und Putenbrust
+Bevor sie sich für Geld ficken, gibt es noch ein'n Bruderkuss
+Franzosenslang und Ein-Wort-Scooter-Hooks
+Ihr endet alle samt in Plastik eingepackt wie Chupa Chups
+Eure Sneaker sind zu klein für meinen Fußabdruck
+Der einzige Rapper hier im Land, den man nicht googlen muss
+Die Musikindustrie ist eine Lachnummer
+Sonny boykottiert den Echo, schon geht er den Bach runter
+Die haben wieder ein'n gefunden auf den Bahngleisen
+Und wieder kann ich von der Liste ein'n Nam'n streichen, yeah!
+[Hook]
+Meine Feinde enden unter Wasser
+Unter Wasser wie Aquarienfische
+Ich weiß, du fühlst dich unantastbar
+Doch ich hab' Nam'n auf der schwarzen Liste
+Nam'n auf der schwarzen Liste
+Streich' sie mit dem Mont Blanc
+Tag für Tag ein paar Vermisste
+In Plastik eingewickelt wie ein Bonbon
+[Part 2]
+Ich hab' Nam'n aus der Politik, Nam'n aus der Lügenpresse
+Nam'n aus den Vorständen, Nam'n ihrer Führungskräfte
+Nadelstreifen und die teuersten Tribühn'nplätze
+Niemand überlebt, überall Überreste
+Plötzlich stottern eure oberen Zehntausend
+Als ob sie ein'n Logopäden brauchen
+A-Promis werden alle paranoid
+Die Wichser schlagen sogar aus 'ner Spendengala Profit
+Meine Liste ist zu lang geworden, ich brauch' einen Aktenständer
+Da wo wir agier'n, fällt kein Blaulicht auf die Schattenmänner
+Im Hinterzimmer sitzen Waffenhändler
+Und die müssen sich vor mir verneigen wie vorm Wasserspender
+Ich hab' Cops auf den Gehaltslisten
+Ihr habt von der Halbwelt nur Halbwissen
+Wieder landet einer bei den Würmern und den Ameisen
+Und wieder kann ich von der Liste ein'n Nam'n steichen, yeah
+[Hook]
+Meine Feinde enden unter Wasser
+Unter Wasser wie Aquarienfische
+Ich weiß, du fühlst dich unantastbar
+Doch ich hab' Nam'n auf der schwarzen Liste
+Nam'n auf der schwarzen Liste
+Streich' sie mit dem Mont Blanc
+Tag für Tag ein paar Vermisste
+In Plastik eingewickelt wie ein Bonbon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1540,8 +2597,55 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[Part 1: Metrickz]Ich bin MJ auf Raplevel, Belford-CharakterzügeKeine Hemmschwelle, Geldscheffel-AttitüdeIch sorg' dafür, dass ihr am Ende seid wie ZAPsScheißegal, was sie jetzt labern, geht mir aus dem WegMit sechsundzwanzig kauf' ich Häuser, ihr geht Insolvenz„Wir ficken alle deutschen Labels“, ist die QuintessenzErsguterjunge Optimus PrimeWas für'n Gefühl, wenn Arafat dir sagt, dass Sonny dich signt, yeahWas ich anfass', wird zu Gold, ich bin kein SamariterFokussiert auf den Erfolg als wär' ich BayernspielerDiese Neider blicken hasserfüllt auf meine VitaAber Löwen reden nicht mit Hunden oder KleinkalibernKeine Liebe für Verräter auf dem BlacksweaterVendetta à la Black-Panther-GangmemberIch feuer' Schüsse aus der schwarz lackierten MAC-10 abKeine Miene unterm Bandana[Hook: Metrickz &amp; Bushido]Löwen reden nicht mit Hunden, denn sie beißen wie MufasaHast du keine Feinde, dann hast du kein'n CharakterMann, sie komm'n immer mitternachts und starten ein'n MassakerHast du keine Feinde, dann hast du kein'n CharakterLöwen reden nicht mit Hunden, denn sie beißen wie MufasaHast du keine Feinde, dann hast du kein'n CharakterMann, wir komm'n immer mitternachts und starten ein'n MassakerHast du keine Feinde, dann hast du kein'n Charakter
-[Part 2: Bushido]Sie lauern hinterm Busch als wär'n sie Dick CheneyHurensohn-Journalisten machen auf Detektive wie Dick TracyAlter Ego, so wie Slim ShadyLass' die Mütter meiner Feinde vor mir dirty tanzen, so wie Patrick SwayzeRapper müssen noch ein'n Nebenjob stemm'nIhr kauft den Medien alles ab wie ein TeleshopfanEs ist egj-Gang, fick die Szene, Top-TenWir kontrollieren den Musikmarkt wie die BPjM, yeahMacht mir nicht auf Reservoir DogsOder ich schick' euch Richtung Himmel, so wie WetterballonsIhr seid ein kleiner Snack Fastfood – SchnellrestaurantsDeine Cousins schau'n zu, wenn du 'ne Schelle bekommst, yeahSonny Black, mein Label ist 'ne GeldfabrikEuer Majorbiz bringt nur Kleingeld wie ein KellnertippIch hab' euch damals schon auf Tape geficktIch hab' Charakter, ich verstell' mich nicht, yeah[Hook: Metrickz &amp; Bushido]Löwen reden nicht mit Hunden, denn sie beißen wie MufasaHast du keine Feinde, dann hast du kein'n CharakterMann, sie komm'n immer mitternachts und starten ein'n MassakerHast du keine Feinde, dann hast du kein'n CharakterLöwen reden nicht mit Hunden, denn sie beißen wie MufasaHast du keine Feinde, dann hast du kein'n CharakterMann, wir komm'n immer mitternachts und starten ein'n MassakerHast du keine Feinde, dann hast du kein'n Charakter</t>
+          <t>[Part 1: Metrickz]
+Ich binMJ auf Raplevel,Belford-Charakterzüge
+KeineHemmschwelle, Geldscheffel-Attitüde
+Ich sorg' dafür, dass ihr am Ende seid wie ZAPs
+Scheißegal, was sie jetzt labern, geht mir aus dem Weg
+Mit sechsundzwanzig kauf' ich Häuser, ihr geht Insolvenz
+„Wir ficken alle deutschen Labels“, ist die Quintessenz
+Ersguterjunge Optimus Prime
+Was für'n Gefühl,wenn Arafat dir sagt, dass Sonny dich signt, yeah
+Was ich anfass', wird zu Gold, ich bin kein Samariter
+Fokussiert auf den Erfolg als wär' ich Bayernspieler
+Diese Neider blicken hasserfüllt auf meine Vita
+Aber Löwen reden nicht mit Hunden oder Kleinkalibern
+Keine Liebe für Verräter auf dem Blacksweater
+Vendetta à la Black-Panther-Gangmember
+Ich feuer' Schüsse aus der schwarz lackiertenMAC-10ab
+Keine Miene unterm Bandana
+[Hook: Metrickz &amp;Bushido]
+Löwen reden nicht mit Hunden, denn sie beißen wie Mufasa
+Hast du keine Feinde, dann hast du kein'n Charakter
+Mann, sie komm'n immer mitternachts und starten ein'n Massaker
+Hast du keine Feinde, dann hast du kein'n Charakter
+Löwen reden nicht mit Hunden, denn sie beißen wie Mufasa
+Hast du keine Feinde, dann hast du kein'n Charakter
+Mann, wir komm'n immer mitternachts und starten ein'n Massaker
+Hast du keine Feinde, dann hast du kein'n Charakter
+[Part 2: Bushido]
+Sie lauern hinterm Busch als wär'n sie Dick Cheney
+Hurensohn-Journalisten machen auf Detektive wie Dick Tracy
+Alter Ego, so wie Slim Shady
+Lass' die Mütter meiner Feinde vor mir dirty tanzen, so wie Patrick Swayze
+Rapper müssen noch ein'n Nebenjob stemm'n
+Ihr kauft den Medien alles ab wie ein Teleshopfan
+Es ist egj-Gang, fick die Szene, Top-Ten
+Wir kontrollieren den Musikmarkt wie die BPjM, yeah
+Macht mir nicht auf Reservoir Dogs
+Oder ich schick' euch Richtung Himmel, so wie Wetterballons
+Ihr seid ein kleiner Snack Fastfood – Schnellrestaurants
+Deine Cousins schau'n zu, wenn du 'ne Schelle bekommst, yeah
+Sonny Black, mein Label ist 'ne Geldfabrik
+Euer Majorbiz bringt nur Kleingeld wie ein Kellnertipp
+Ich hab' euch damals schon auf Tape gefickt
+Ich hab' Charakter, ich verstell' mich nicht, yeah
+[Hook: Metrickz &amp; Bushido]
+Löwen reden nicht mit Hunden, denn sie beißen wie Mufasa
+Hast du keine Feinde, dann hast du kein'n Charakter
+Mann, sie komm'n immer mitternachts und starten ein'n Massaker
+Hast du keine Feinde, dann hast du kein'n Charakter
+Löwen reden nicht mit Hunden, denn sie beißen wie MufasaHast du keine Feinde, dann hast du kein'n CharakterMann, wir komm'n immer mitternachts und starten ein'n MassakerHast du keine Feinde, dann hast du kein'n Charakter</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1591,9 +2695,67 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[Hook]Wenn irgendeiner ernsthaft denkt, er wäre KonkurrenzDann lass ihn wissen: ich bin sowas wie ein MonumentDas Letze, was du hörst, ist meine KondolenzZähl eins und eins zusamm'n und rechne mit der KonsequenzWenn irgendeiner ernsthaft denkt, er wäre KonkurrenzDann lass ihn wissen: ich bin sowas wie ein MonumentDas Letze, was du hörst, ist meine KondolenzZähl eins und eins zusamm'n und rechne mit der Konsequenz[Part 1]Yeah! Mit einhundertfünfzig Euro GemacashMachst du auf Playboymansion in dei'm IKEA-BettIch scheiß' auf deine neun starken BFFsDas hier ist wie UFC gegen WWFDeine Mutter denkt an Wichse, hört sie SpritzgebäckUnd sie denkt an Fixbesteck, hört sie TischgedeckSie ist trocken wie ein DinkelbrotUnd dein Vater, dieses Schwein, stinkt nach Käse wie ein SchinkentoastDu denkst, du bist Toni vor dei'm Riesenberg aus PuderzuckerWas für Koksbarone? Ihr seid allerhöchstens U-Bahn-SchubserDeine schlimmst Straftat war ein Sprung vom BeckenrandDeutscher Rap ist der Beweis, dass doch nicht jeder rappen kannIhr habt bisschen Hype und jeder gratuliert per SMSDoch nur ich hab' ein'n Erfolg, der sich nicht messen lässtRote Snapback, Sonnenbrille – du siehst aus wie Captain JackEure Beefs sind Fotze gegen Fotze, so wie Lesbensex
-[Hook]Wenn irgendeiner ernsthaft denkt, er wäre KonkurrenzDann lass ihn wissen: ich bin sowas wie ein MonumentDas Letze, was du hörst, ist meine KondolenzZähl eins und eins zusamm'n und rechne mit der KonsequenzWenn irgendeiner ernsthaft denkt, er wäre KonkurrenzDann lass ihn wissen: ich bin sowas wie ein MonumentDas Letze, was du hörst, ist meine KondolenzZähl eins und eins zusamm'n und rechne mit der Konsequenz[Part 2]Neunzig BPM, ich ficke eure Afro-Trap-DrumsDeine Mutter twerkt für deinen Vater, diesen FettwanstScheiß auf dein Knöcheldekolleté und deine RetrosneakerIhr fickt keine Menschenseele wie ein NekrophilerSitzt um meine Shisha rum wie eine schwule PärchenrundeUnd erzählt euch eure krassen Gangsterstorys – MärchenstundeDu schaust auf den großen Wagen wie bei SternenkundeWenn wir komm'n, neigst du den Kopf zur Straße, so wie FährtenhundeUnd schönen Gruß an Rooz, den SpeichelleckerTouris werden in Berlin gefressen wie im HaigewässerDeine Mutter bläst seit der PubertätUnd das Sperma hält sie knackig wie'n ButterkeksIch servier' euch Hunden TrockenfutterDas einzige deutsche Gericht, vor dem du sitzt, ist KartoffelpufferPlattenboss, das ist ein Penthouse und kein DachgeschossDie Fotze deiner Mutter ist so feucht, ich kriege Lattenrost
-[Hook]Wenn irgendeiner ernsthaft denkt, er wäre KonkurrenzDann lass ihn wissen: ich bin sowas wie ein MonumentDas Letze, was du hörst, ist meine KondolenzZähl eins und eins zusamm'n und rechne mit der KonsequenzWenn irgendeiner ernsthaft denkt, er wäre KonkurrenzDann lass ihn wissen: ich bin sowas wie ein MonumentDas Letze, was du hörst, ist meine KondolenzZähl eins und eins zusamm'n und rechne mit der Konsequenz</t>
+          <t xml:space="preserve">[Hook]
+Wenn irgendeiner ernsthaft denkt, er wäre Konkurrenz
+Dann lass ihn wissen: ich bin sowas wie ein Monument
+Das Letze, was du hörst, ist meine Kondolenz
+Zähl eins und eins zusamm'n und rechne mit der Konsequenz
+Wenn irgendeiner ernsthaft denkt, er wäre Konkurrenz
+Dann lass ihn wissen: ich bin sowas wie ein Monument
+Das Letze, was du hörst, ist meine Kondolenz
+Zähl eins und eins zusamm'n und rechne mit der Konsequenz
+[Part 1]
+Yeah! Mit einhundertfünfzig Euro Gemacash
+Machst du auf Playboymansion in dei'm IKEA-Bett
+Ich scheiß' auf deine neun starken BFFs
+Das hier ist wie UFC gegen WWF
+Deine Mutter denkt an Wichse, hört sie Spritzgebäck
+Und sie denkt an Fixbesteck, hört sie Tischgedeck
+Sie ist trocken wie ein Dinkelbrot
+Und dein Vater, dieses Schwein, stinkt nach Käse wie ein Schinkentoast
+Du denkst, du bist Toni vor dei'm Riesenberg aus Puderzucker
+Was für Koksbarone? Ihr seid allerhöchstens U-Bahn-Schubser
+Deine schlimmst Straftat war ein Sprung vom Beckenrand
+Deutscher Rap ist der Beweis, dass doch nicht jeder rappen kann
+Ihr habt bisschen Hype und jeder gratuliert per SMS
+Doch nur ich hab' ein'n Erfolg, der sich nicht messen lässt
+Rote Snapback, Sonnenbrille – du siehst aus wie Captain JackEure Beefs sind Fotze gegen Fotze, so wie Lesbensex
+[Hook]
+Wenn irgendeiner ernsthaft denkt, er wäre Konkurrenz
+Dann lass ihn wissen: ich bin sowas wie ein Monument
+Das Letze, was du hörst, ist meine Kondolenz
+Zähl eins und eins zusamm'n und rechne mit der Konsequenz
+Wenn irgendeiner ernsthaft denkt, er wäre Konkurrenz
+Dann lass ihn wissen: ich bin sowas wie ein Monument
+Das Letze, was du hörst, ist meine Kondolenz
+Zähl eins und eins zusamm'n und rechne mit der Konsequenz
+[Part 2]
+Neunzig BPM, ich ficke eure Afro-Trap-Drums
+Deine Mutter twerkt für deinen Vater, diesen Fettwanst
+Scheiß auf dein Knöcheldekolleté und deine Retrosneaker
+Ihr fickt keine Menschenseele wie ein Nekrophiler
+Sitzt um meine Shisha rum wie eine schwule Pärchenrunde
+Und erzählt euch eure krassen Gangsterstorys – Märchenstunde
+Du schaust auf den großen Wagen wie bei Sternenkunde
+Wenn wir komm'n, neigst du den Kopf zur Straße, so wie Fährtenhunde
+Und schönen Gruß an Rooz, den Speichellecker
+Touris werden in Berlin gefressen wie im Haigewässer
+Deine Mutter bläst seit der Pubertät
+Und das Sperma hält sie knackig wie'n Butterkeks
+Ich servier' euch Hunden Trockenfutter
+Das einzige deutsche Gericht, vor dem du sitzt, ist Kartoffelpuffer
+Plattenboss, das ist ein Penthouse und kein Dachgeschoss
+Die Fotze deiner Mutter ist so feucht, ich kriege Lattenrost
+[Hook]
+Wenn irgendeiner ernsthaft denkt, er wäre Konkurrenz
+Dann lass ihn wissen: ich bin sowas wie ein Monument
+Das Letze, was du hörst, ist meine Kondolenz
+Zähl eins und eins zusamm'n und rechne mit der Konsequenz
+Wenn irgendeiner ernsthaft denkt, er wäre Konkurrenz
+Dann lass ihn wissen: ich bin sowas wie ein Monument
+Das Letze, was du hörst, ist meine Kondolenz
+Zähl eins und eins zusamm'n und rechne mit der Konsequenz
+</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1643,7 +2805,45 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Die wichtigsten Ereignisse der PromophaseJuni 201716. - Interview mit 98.8 Kiss FM09. - Interview mit BMTV Urban09. - Release01. - 4. Single - PapaMai 201731. - Ansage #831. - Tracklist27. - Ankündigung zum Videodreh der 4. Single "Papa"19. - Interview mit Backspin18. - 3. Single - Sodom und Gomorrha17. - Ansage #716. - Ankündigung zur Ansage #715. - Bekanntgabe des Tracks "Swiss Stacks" (feat. Laas Unltd.)13. - Ankündigung zum Videodreh der 3. Single "Sodom und Gomorrha"06. - Kleine Hörprobe #203. - Ansage #602. - Ankündigung zur Ansage #6April 201729. - Kleine Hörprobe des Tracks "CCN DNA" (feat. Fler)26. - Making of "Gehen wir rein"15. - Ansage #515. - Ankündigung zur Ansage #506. - 2. Single - Gehen wir rein (feat. M.O030)01. + 06. - Ankündigung zum Videodreh der 2. Single "Gehen wir rein (feat. M.O030)"März 201723. - Making of "Fallout"17. - 1. Single - Fallout16. - Ansage #413. + 14. - Ankündigung zum Videodreh der 1. Single "Fallout"08. - Ansage #308. - Ankündigung zur Ansage #3Februar 201722. - Ansage #222. - Ankündigung zur Ansage #216. - Ansage #116. - Ankündigung zur Ansage #1Dezember 201620. - Ankündigung + Vorbestellungslink</t>
+          <t>Die wichtigsten Ereignisse der PromophaseJuni 2017
+16. - Interview mit 98.8 Kiss FM
+09. - Interview mit BMTV Urban
+09. - Release
+01. - 4. Single - Papa
+Mai 2017
+31. - Ansage #8
+31. - Tracklist
+27. - Ankündigung zum Videodreh der 4. Single "Papa"
+19. - Interview mit Backspin
+18. - 3. Single - Sodom und Gomorrha
+17. - Ansage #7
+16. - Ankündigung zur Ansage #7
+15. - Bekanntgabe des Tracks "Swiss Stacks" (feat. Laas Unltd.)
+13. - Ankündigung zum Videodreh der 3. Single "Sodom und Gomorrha"
+06. - Kleine Hörprobe #2
+03. - Ansage #6
+02. - Ankündigung zur Ansage #6
+April 2017
+29. - Kleine Hörprobe des Tracks "CCN DNA" (feat. Fler)
+26. - Making of "Gehen wir rein"
+15. - Ansage #5
+15. - Ankündigung zur Ansage #5
+06. - 2. Single - Gehen wir rein (feat. M.O030)
+01. + 06. - Ankündigung zum Videodreh der 2. Single "Gehen wir rein (feat. M.O030)"
+März 2017
+23. - Making of "Fallout"
+17. - 1. Single - Fallout
+16. - Ansage #4
+13. + 14. - Ankündigung zum Videodreh der 1. Single "Fallout"
+08. - Ansage #3
+08. - Ankündigung zur Ansage #3
+Februar 2017
+22. - Ansage #2
+22. - Ankündigung zur Ansage #2
+16. - Ansage #1
+16. - Ankündigung zur Ansage #1
+Dezember 2016
+20. - Ankündigung + Vorbestellungslink</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
